--- a/王者喵喵/数值-修正版.xlsx
+++ b/王者喵喵/数值-修正版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="综合" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="427">
   <si>
     <t>木头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1524,6 +1524,107 @@
   <si>
     <t>圣水价值-钻石/圣水</t>
   </si>
+  <si>
+    <t>70002_5000_75,70002_10000_75,70002_20000_50,70002_40000_30,70002_80000_20</t>
+  </si>
+  <si>
+    <t>70002_7500_75,70002_15000_75,70002_30000_50,70002_60000_30,70002_120000_20</t>
+  </si>
+  <si>
+    <t>70002_12500_75,70002_25000_75,70002_50000_50,70002_100000_30,70002_200000_20</t>
+  </si>
+  <si>
+    <t>70002_17500_75,70002_35000_75,70002_70000_50,70002_140000_30,70002_280000_20</t>
+  </si>
+  <si>
+    <t>70002_25000_75,70002_50000_75,70002_100000_50,70002_200000_30,70002_400000_20</t>
+  </si>
+  <si>
+    <t>70002_40000_75,70002_80000_75,70002_160000_50,70002_320000_30,70002_640000_20</t>
+  </si>
+  <si>
+    <t>70002_60000_75,70002_120000_75,70002_240000_50,70002_480000_30,70002_960000_20</t>
+  </si>
+  <si>
+    <t>70002_90000_75,70002_180000_75,70002_360000_50,70002_720000_30,70002_1440000_20</t>
+  </si>
+  <si>
+    <t>70002_125000_75,70002_250000_75,70002_500000_50,70002_1000000_30,70002_2000000_20</t>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70003_5000_30,70003_10000_30,70003_20000_20,70003_40000_12,70003_80000_8</t>
+  </si>
+  <si>
+    <t>70003_7500_30,70003_15000_30,70003_30000_20,70003_60000_12,70003_120000_8</t>
+  </si>
+  <si>
+    <t>70003_12500_30,70003_25000_30,70003_50000_20,70003_100000_12,70003_200000_8</t>
+  </si>
+  <si>
+    <t>70003_17500_30,70003_35000_30,70003_70000_20,70003_140000_12,70003_280000_8</t>
+  </si>
+  <si>
+    <t>70003_25000_30,70003_50000_30,70003_100000_20,70003_200000_12,70003_400000_8</t>
+  </si>
+  <si>
+    <t>70003_40000_30,70003_80000_30,70003_160000_20,70003_320000_12,70003_640000_8</t>
+  </si>
+  <si>
+    <t>70003_60000_30,70003_120000_30,70003_240000_20,70003_480000_12,70003_960000_8</t>
+  </si>
+  <si>
+    <t>70003_90000_30,70003_180000_30,70003_360000_20,70003_720000_12,70003_1440000_8</t>
+  </si>
+  <si>
+    <t>70003_125000_30,70003_250000_30,70003_500000_20,70003_1000000_12,70003_2000000_8</t>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70004_5000_30,70004_10000_30,70004_20000_20,70004_40000_12,70004_80000_8</t>
+  </si>
+  <si>
+    <t>70004_7500_30,70004_15000_30,70004_30000_20,70004_60000_12,70004_120000_8</t>
+  </si>
+  <si>
+    <t>70004_12500_30,70004_25000_30,70004_50000_20,70004_100000_12,70004_200000_8</t>
+  </si>
+  <si>
+    <t>70004_17500_30,70004_35000_30,70004_70000_20,70004_140000_12,70004_280000_8</t>
+  </si>
+  <si>
+    <t>70004_25000_30,70004_50000_30,70004_100000_20,70004_200000_12,70004_400000_8</t>
+  </si>
+  <si>
+    <t>70004_40000_30,70004_80000_30,70004_160000_20,70004_320000_12,70004_640000_8</t>
+  </si>
+  <si>
+    <t>70004_60000_30,70004_120000_30,70004_240000_20,70004_480000_12,70004_960000_8</t>
+  </si>
+  <si>
+    <t>70004_90000_30,70004_180000_30,70004_360000_20,70004_720000_12,70004_1440000_8</t>
+  </si>
+  <si>
+    <t>70004_125000_30,70004_250000_30,70004_500000_20,70004_1000000_12,70004_2000000_8</t>
+  </si>
+  <si>
+    <t>综合（加上5%抽出体力）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2152,7 +2253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2470,6 +2571,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2538,6 +2640,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2919,11 +3022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="403698112"/>
-        <c:axId val="403698504"/>
+        <c:axId val="246921776"/>
+        <c:axId val="246922168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="403698112"/>
+        <c:axId val="246921776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +3068,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403698504"/>
+        <c:crossAx val="246922168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2973,7 +3076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403698504"/>
+        <c:axId val="246922168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,7 +3127,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403698112"/>
+        <c:crossAx val="246921776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3088,6 +3191,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3769,11 +3873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="403699288"/>
-        <c:axId val="403699680"/>
+        <c:axId val="246922952"/>
+        <c:axId val="249250976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="403699288"/>
+        <c:axId val="246922952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,7 +3919,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403699680"/>
+        <c:crossAx val="249250976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3823,7 +3927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403699680"/>
+        <c:axId val="249250976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,7 +3978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403699288"/>
+        <c:crossAx val="246922952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5996,10 +6100,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V46"/>
+  <dimension ref="B2:AP46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH37" sqref="AH37:AP37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6011,10 +6115,16 @@
     <col min="7" max="7" width="8" style="70" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="70" bestFit="1" customWidth="1"/>
     <col min="9" max="22" width="8.75" style="70" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="70"/>
+    <col min="23" max="23" width="9" style="70"/>
+    <col min="24" max="25" width="15.5" style="70" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="16.625" style="70" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.75" style="70" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" style="70"/>
+    <col min="34" max="42" width="20" style="70" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B2" s="70" t="s">
         <v>310</v>
       </c>
@@ -6040,7 +6150,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B3" s="70" t="s">
         <v>309</v>
       </c>
@@ -6063,7 +6173,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B4" s="70" t="s">
         <v>318</v>
       </c>
@@ -6086,7 +6196,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B5" s="70" t="s">
         <v>319</v>
       </c>
@@ -6109,7 +6219,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E6" s="98">
         <v>4</v>
       </c>
@@ -6129,7 +6239,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E7" s="145">
         <v>5</v>
       </c>
@@ -6140,7 +6250,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:42" x14ac:dyDescent="0.15">
       <c r="E9" s="144" t="s">
         <v>355</v>
       </c>
@@ -6196,7 +6306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:42" x14ac:dyDescent="0.15">
       <c r="E10" s="144" t="s">
         <v>356</v>
       </c>
@@ -6252,33 +6362,163 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="X11" s="70">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="70">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="70">
+        <v>49</v>
+      </c>
+      <c r="AA11" s="70">
+        <v>59</v>
+      </c>
+      <c r="AB11" s="70">
+        <v>69</v>
+      </c>
+      <c r="AC11" s="70">
+        <v>79</v>
+      </c>
+      <c r="AD11" s="70">
+        <v>89</v>
+      </c>
+      <c r="AE11" s="70">
+        <v>99</v>
+      </c>
+      <c r="AF11" s="70">
+        <v>109</v>
+      </c>
+      <c r="AH11" s="70">
+        <v>29</v>
+      </c>
+      <c r="AI11" s="70">
+        <v>39</v>
+      </c>
+      <c r="AJ11" s="70">
+        <v>49</v>
+      </c>
+      <c r="AK11" s="70">
+        <v>59</v>
+      </c>
+      <c r="AL11" s="70">
+        <v>69</v>
+      </c>
+      <c r="AM11" s="70">
+        <v>79</v>
+      </c>
+      <c r="AN11" s="70">
+        <v>89</v>
+      </c>
+      <c r="AO11" s="70">
+        <v>99</v>
+      </c>
+      <c r="AP11" s="70">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.15">
+      <c r="I12" s="70">
+        <f>ROUND(SUMPRODUCT($G$15:$G$19,I15:I19),-4)</f>
+        <v>50000</v>
+      </c>
+      <c r="J12" s="70">
+        <f t="shared" ref="J12:P12" si="0">ROUND(SUMPRODUCT($G$15:$G$19,J15:J19),-4)</f>
+        <v>70000</v>
+      </c>
+      <c r="K12" s="70">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="L12" s="70">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="M12" s="70">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="N12" s="70">
+        <f t="shared" si="0"/>
+        <v>390000</v>
+      </c>
+      <c r="O12" s="70">
+        <f t="shared" si="0"/>
+        <v>590000</v>
+      </c>
+      <c r="P12" s="70">
+        <f t="shared" si="0"/>
+        <v>890000</v>
+      </c>
+      <c r="Q12" s="70">
+        <f>ROUND(SUMPRODUCT($G$15:$G$19,Q15:Q19),-5)</f>
+        <v>1200000</v>
+      </c>
+      <c r="X12" s="70" t="str">
+        <f t="shared" ref="X12" si="1">"70002_"&amp;I12</f>
+        <v>70002_50000</v>
+      </c>
+      <c r="Y12" s="70" t="str">
+        <f t="shared" ref="Y12" si="2">"70002_"&amp;J12</f>
+        <v>70002_70000</v>
+      </c>
+      <c r="Z12" s="70" t="str">
+        <f t="shared" ref="Z12" si="3">"70002_"&amp;K12</f>
+        <v>70002_120000</v>
+      </c>
+      <c r="AA12" s="70" t="str">
+        <f t="shared" ref="AA12" si="4">"70002_"&amp;L12</f>
+        <v>70002_170000</v>
+      </c>
+      <c r="AB12" s="70" t="str">
+        <f t="shared" ref="AB12" si="5">"70002_"&amp;M12</f>
+        <v>70002_250000</v>
+      </c>
+      <c r="AC12" s="70" t="str">
+        <f t="shared" ref="AC12" si="6">"70002_"&amp;N12</f>
+        <v>70002_390000</v>
+      </c>
+      <c r="AD12" s="70" t="str">
+        <f t="shared" ref="AD12" si="7">"70002_"&amp;O12</f>
+        <v>70002_590000</v>
+      </c>
+      <c r="AE12" s="70" t="str">
+        <f t="shared" ref="AE12:AF12" si="8">"70002_"&amp;P12</f>
+        <v>70002_890000</v>
+      </c>
+      <c r="AF12" s="70" t="str">
+        <f t="shared" si="8"/>
+        <v>70002_1200000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" x14ac:dyDescent="0.15">
       <c r="G13" s="106">
         <f>SUM(G15:G19)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H13" s="70">
         <f>SUM(H15:H19)</f>
-        <v>19.700000000000003</v>
-      </c>
-      <c r="I13" s="156" t="s">
+        <v>49.25</v>
+      </c>
+      <c r="I13" s="157" t="s">
         <v>321</v>
       </c>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="157"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="157"/>
-      <c r="U13" s="157"/>
-      <c r="V13" s="158"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="158"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="158"/>
+      <c r="V13" s="159"/>
+    </row>
+    <row r="14" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E14" s="57" t="s">
         <v>322</v>
       </c>
@@ -6334,7 +6574,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E15" s="57">
         <v>1</v>
       </c>
@@ -6342,11 +6582,11 @@
         <v>5</v>
       </c>
       <c r="G15" s="142">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="H15" s="77">
         <f>F15*G15</f>
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="I15" s="83">
         <f>VLOOKUP(INT(SUBSTITUTE(I$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F15</f>
@@ -6404,8 +6644,80 @@
         <f>VLOOKUP(INT(SUBSTITUTE(V$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F15</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="X15" s="70" t="str">
+        <f>"70002_"&amp;I15&amp;"_"&amp;$G15*100</f>
+        <v>70002_5000_75</v>
+      </c>
+      <c r="Y15" s="70" t="str">
+        <f t="shared" ref="Y15:AF19" si="9">"70002_"&amp;J15&amp;"_"&amp;$G15*100</f>
+        <v>70002_7500_75</v>
+      </c>
+      <c r="Z15" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_12500_75</v>
+      </c>
+      <c r="AA15" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_17500_75</v>
+      </c>
+      <c r="AB15" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_25000_75</v>
+      </c>
+      <c r="AC15" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_40000_75</v>
+      </c>
+      <c r="AD15" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_60000_75</v>
+      </c>
+      <c r="AE15" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_90000_75</v>
+      </c>
+      <c r="AF15" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_125000_75</v>
+      </c>
+      <c r="AH15" s="70" t="str">
+        <f>X15</f>
+        <v>70002_5000_75</v>
+      </c>
+      <c r="AI15" s="70" t="str">
+        <f t="shared" ref="AI15:AP15" si="10">Y15</f>
+        <v>70002_7500_75</v>
+      </c>
+      <c r="AJ15" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>70002_12500_75</v>
+      </c>
+      <c r="AK15" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>70002_17500_75</v>
+      </c>
+      <c r="AL15" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>70002_25000_75</v>
+      </c>
+      <c r="AM15" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>70002_40000_75</v>
+      </c>
+      <c r="AN15" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>70002_60000_75</v>
+      </c>
+      <c r="AO15" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>70002_90000_75</v>
+      </c>
+      <c r="AP15" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>70002_125000_75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.35">
       <c r="E16" s="57">
         <v>2</v>
       </c>
@@ -6413,11 +6725,11 @@
         <v>10</v>
       </c>
       <c r="G16" s="142">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="H16" s="77">
-        <f t="shared" ref="H16:H19" si="0">F16*G16</f>
-        <v>3</v>
+        <f t="shared" ref="H16:H19" si="11">F16*G16</f>
+        <v>7.5</v>
       </c>
       <c r="I16" s="83">
         <f>VLOOKUP(INT(SUBSTITUTE(I$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F16</f>
@@ -6475,8 +6787,80 @@
         <f>VLOOKUP(INT(SUBSTITUTE(V$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F16</f>
         <v>2000000</v>
       </c>
-    </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X16" s="70" t="str">
+        <f t="shared" ref="X16:X19" si="12">"70002_"&amp;I16&amp;"_"&amp;$G16*100</f>
+        <v>70002_10000_75</v>
+      </c>
+      <c r="Y16" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_15000_75</v>
+      </c>
+      <c r="Z16" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_25000_75</v>
+      </c>
+      <c r="AA16" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_35000_75</v>
+      </c>
+      <c r="AB16" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_50000_75</v>
+      </c>
+      <c r="AC16" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_80000_75</v>
+      </c>
+      <c r="AD16" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_120000_75</v>
+      </c>
+      <c r="AE16" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_180000_75</v>
+      </c>
+      <c r="AF16" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_250000_75</v>
+      </c>
+      <c r="AH16" s="70" t="str">
+        <f>AH15&amp;","&amp;X16</f>
+        <v>70002_5000_75,70002_10000_75</v>
+      </c>
+      <c r="AI16" s="70" t="str">
+        <f t="shared" ref="AI16:AP19" si="13">AI15&amp;","&amp;Y16</f>
+        <v>70002_7500_75,70002_15000_75</v>
+      </c>
+      <c r="AJ16" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_12500_75,70002_25000_75</v>
+      </c>
+      <c r="AK16" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_17500_75,70002_35000_75</v>
+      </c>
+      <c r="AL16" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_25000_75,70002_50000_75</v>
+      </c>
+      <c r="AM16" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_40000_75,70002_80000_75</v>
+      </c>
+      <c r="AN16" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_60000_75,70002_120000_75</v>
+      </c>
+      <c r="AO16" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_90000_75,70002_180000_75</v>
+      </c>
+      <c r="AP16" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_125000_75,70002_250000_75</v>
+      </c>
+    </row>
+    <row r="17" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E17" s="57">
         <v>3</v>
       </c>
@@ -6484,11 +6868,11 @@
         <v>20</v>
       </c>
       <c r="G17" s="142">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="77">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="I17" s="83">
         <f>VLOOKUP(INT(SUBSTITUTE(I$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F17</f>
@@ -6546,8 +6930,80 @@
         <f>VLOOKUP(INT(SUBSTITUTE(V$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F17</f>
         <v>4000000</v>
       </c>
-    </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X17" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>70002_20000_50</v>
+      </c>
+      <c r="Y17" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_30000_50</v>
+      </c>
+      <c r="Z17" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_50000_50</v>
+      </c>
+      <c r="AA17" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_70000_50</v>
+      </c>
+      <c r="AB17" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_100000_50</v>
+      </c>
+      <c r="AC17" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_160000_50</v>
+      </c>
+      <c r="AD17" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_240000_50</v>
+      </c>
+      <c r="AE17" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_360000_50</v>
+      </c>
+      <c r="AF17" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_500000_50</v>
+      </c>
+      <c r="AH17" s="70" t="str">
+        <f t="shared" ref="AH17:AH19" si="14">AH16&amp;","&amp;X17</f>
+        <v>70002_5000_75,70002_10000_75,70002_20000_50</v>
+      </c>
+      <c r="AI17" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_7500_75,70002_15000_75,70002_30000_50</v>
+      </c>
+      <c r="AJ17" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_12500_75,70002_25000_75,70002_50000_50</v>
+      </c>
+      <c r="AK17" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_17500_75,70002_35000_75,70002_70000_50</v>
+      </c>
+      <c r="AL17" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_25000_75,70002_50000_75,70002_100000_50</v>
+      </c>
+      <c r="AM17" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_40000_75,70002_80000_75,70002_160000_50</v>
+      </c>
+      <c r="AN17" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_60000_75,70002_120000_75,70002_240000_50</v>
+      </c>
+      <c r="AO17" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_90000_75,70002_180000_75,70002_360000_50</v>
+      </c>
+      <c r="AP17" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_125000_75,70002_250000_75,70002_500000_50</v>
+      </c>
+    </row>
+    <row r="18" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E18" s="57">
         <v>4</v>
       </c>
@@ -6555,11 +7011,11 @@
         <v>40</v>
       </c>
       <c r="G18" s="142">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="H18" s="77">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="I18" s="83">
         <f>VLOOKUP(INT(SUBSTITUTE(I$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F18</f>
@@ -6617,8 +7073,80 @@
         <f>VLOOKUP(INT(SUBSTITUTE(V$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F18</f>
         <v>8000000</v>
       </c>
-    </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X18" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>70002_40000_30</v>
+      </c>
+      <c r="Y18" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_60000_30</v>
+      </c>
+      <c r="Z18" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_100000_30</v>
+      </c>
+      <c r="AA18" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_140000_30</v>
+      </c>
+      <c r="AB18" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_200000_30</v>
+      </c>
+      <c r="AC18" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_320000_30</v>
+      </c>
+      <c r="AD18" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_480000_30</v>
+      </c>
+      <c r="AE18" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_720000_30</v>
+      </c>
+      <c r="AF18" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_1000000_30</v>
+      </c>
+      <c r="AH18" s="70" t="str">
+        <f t="shared" si="14"/>
+        <v>70002_5000_75,70002_10000_75,70002_20000_50,70002_40000_30</v>
+      </c>
+      <c r="AI18" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_7500_75,70002_15000_75,70002_30000_50,70002_60000_30</v>
+      </c>
+      <c r="AJ18" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_12500_75,70002_25000_75,70002_50000_50,70002_100000_30</v>
+      </c>
+      <c r="AK18" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_17500_75,70002_35000_75,70002_70000_50,70002_140000_30</v>
+      </c>
+      <c r="AL18" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_25000_75,70002_50000_75,70002_100000_50,70002_200000_30</v>
+      </c>
+      <c r="AM18" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_40000_75,70002_80000_75,70002_160000_50,70002_320000_30</v>
+      </c>
+      <c r="AN18" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_60000_75,70002_120000_75,70002_240000_50,70002_480000_30</v>
+      </c>
+      <c r="AO18" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_90000_75,70002_180000_75,70002_360000_50,70002_720000_30</v>
+      </c>
+      <c r="AP18" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_125000_75,70002_250000_75,70002_500000_50,70002_1000000_30</v>
+      </c>
+    </row>
+    <row r="19" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E19" s="57">
         <v>5</v>
       </c>
@@ -6626,11 +7154,11 @@
         <v>80</v>
       </c>
       <c r="G19" s="142">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="H19" s="77">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
       <c r="I19" s="83">
         <f>VLOOKUP(INT(SUBSTITUTE(I$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F19</f>
@@ -6688,8 +7216,80 @@
         <f>VLOOKUP(INT(SUBSTITUTE(V$14,"级","")),猫咪!$W$3:$Y$17,2,0)*$F19</f>
         <v>16000000</v>
       </c>
-    </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="X19" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>70002_80000_20</v>
+      </c>
+      <c r="Y19" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_120000_20</v>
+      </c>
+      <c r="Z19" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_200000_20</v>
+      </c>
+      <c r="AA19" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_280000_20</v>
+      </c>
+      <c r="AB19" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_400000_20</v>
+      </c>
+      <c r="AC19" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_640000_20</v>
+      </c>
+      <c r="AD19" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_960000_20</v>
+      </c>
+      <c r="AE19" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_1440000_20</v>
+      </c>
+      <c r="AF19" s="70" t="str">
+        <f t="shared" si="9"/>
+        <v>70002_2000000_20</v>
+      </c>
+      <c r="AH19" s="70" t="str">
+        <f t="shared" si="14"/>
+        <v>70002_5000_75,70002_10000_75,70002_20000_50,70002_40000_30,70002_80000_20</v>
+      </c>
+      <c r="AI19" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_7500_75,70002_15000_75,70002_30000_50,70002_60000_30,70002_120000_20</v>
+      </c>
+      <c r="AJ19" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_12500_75,70002_25000_75,70002_50000_50,70002_100000_30,70002_200000_20</v>
+      </c>
+      <c r="AK19" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_17500_75,70002_35000_75,70002_70000_50,70002_140000_30,70002_280000_20</v>
+      </c>
+      <c r="AL19" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_25000_75,70002_50000_75,70002_100000_50,70002_200000_30,70002_400000_20</v>
+      </c>
+      <c r="AM19" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_40000_75,70002_80000_75,70002_160000_50,70002_320000_30,70002_640000_20</v>
+      </c>
+      <c r="AN19" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_60000_75,70002_120000_75,70002_240000_50,70002_480000_30,70002_960000_20</v>
+      </c>
+      <c r="AO19" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_90000_75,70002_180000_75,70002_360000_50,70002_720000_30,70002_1440000_20</v>
+      </c>
+      <c r="AP19" s="70" t="str">
+        <f t="shared" si="13"/>
+        <v>70002_125000_75,70002_250000_75,70002_500000_50,70002_1000000_30,70002_2000000_20</v>
+      </c>
+    </row>
+    <row r="22" spans="5:42" x14ac:dyDescent="0.15">
       <c r="G22" s="106">
         <f>SUM(G24:G28)</f>
         <v>1</v>
@@ -6698,24 +7298,24 @@
         <f>SUM(H24:H28)</f>
         <v>19.700000000000003</v>
       </c>
-      <c r="I22" s="156" t="s">
+      <c r="I22" s="157" t="s">
         <v>351</v>
       </c>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="158"/>
-    </row>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="159"/>
+    </row>
+    <row r="23" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E23" s="57" t="s">
         <v>322</v>
       </c>
@@ -6771,7 +7371,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="24" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E24" s="57">
         <v>1</v>
       </c>
@@ -6841,8 +7441,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),树木!$Z$4:$AB$18,2,0)*$F24,-1)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X24" s="70" t="str">
+        <f t="shared" ref="X24:AF28" si="15">"70003_"&amp;I24&amp;"_"&amp;$G24*100</f>
+        <v>70003_5000_30</v>
+      </c>
+      <c r="Y24" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_7500_30</v>
+      </c>
+      <c r="Z24" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_12500_30</v>
+      </c>
+      <c r="AA24" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_17500_30</v>
+      </c>
+      <c r="AB24" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_25000_30</v>
+      </c>
+      <c r="AC24" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_40000_30</v>
+      </c>
+      <c r="AD24" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_60000_30</v>
+      </c>
+      <c r="AE24" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_90000_30</v>
+      </c>
+      <c r="AF24" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_125000_30</v>
+      </c>
+      <c r="AH24" s="70" t="str">
+        <f>X24</f>
+        <v>70003_5000_30</v>
+      </c>
+      <c r="AI24" s="70" t="str">
+        <f t="shared" ref="AI24" si="16">Y24</f>
+        <v>70003_7500_30</v>
+      </c>
+      <c r="AJ24" s="70" t="str">
+        <f t="shared" ref="AJ24" si="17">Z24</f>
+        <v>70003_12500_30</v>
+      </c>
+      <c r="AK24" s="70" t="str">
+        <f t="shared" ref="AK24" si="18">AA24</f>
+        <v>70003_17500_30</v>
+      </c>
+      <c r="AL24" s="70" t="str">
+        <f t="shared" ref="AL24" si="19">AB24</f>
+        <v>70003_25000_30</v>
+      </c>
+      <c r="AM24" s="70" t="str">
+        <f t="shared" ref="AM24" si="20">AC24</f>
+        <v>70003_40000_30</v>
+      </c>
+      <c r="AN24" s="70" t="str">
+        <f t="shared" ref="AN24" si="21">AD24</f>
+        <v>70003_60000_30</v>
+      </c>
+      <c r="AO24" s="70" t="str">
+        <f t="shared" ref="AO24" si="22">AE24</f>
+        <v>70003_90000_30</v>
+      </c>
+      <c r="AP24" s="70" t="str">
+        <f t="shared" ref="AP24" si="23">AF24</f>
+        <v>70003_125000_30</v>
+      </c>
+    </row>
+    <row r="25" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E25" s="57">
         <v>2</v>
       </c>
@@ -6853,7 +7525,7 @@
         <v>0.3</v>
       </c>
       <c r="H25" s="77">
-        <f t="shared" ref="H25:H28" si="1">F25*G25</f>
+        <f t="shared" ref="H25:H28" si="24">F25*G25</f>
         <v>3</v>
       </c>
       <c r="I25" s="83">
@@ -6912,8 +7584,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),树木!$Z$4:$AB$18,2,0)*$F25,-1)</f>
         <v>2000000</v>
       </c>
-    </row>
-    <row r="26" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X25" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_10000_30</v>
+      </c>
+      <c r="Y25" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_15000_30</v>
+      </c>
+      <c r="Z25" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_25000_30</v>
+      </c>
+      <c r="AA25" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_35000_30</v>
+      </c>
+      <c r="AB25" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_50000_30</v>
+      </c>
+      <c r="AC25" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_80000_30</v>
+      </c>
+      <c r="AD25" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_120000_30</v>
+      </c>
+      <c r="AE25" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_180000_30</v>
+      </c>
+      <c r="AF25" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_250000_30</v>
+      </c>
+      <c r="AH25" s="70" t="str">
+        <f>AH24&amp;","&amp;X25</f>
+        <v>70003_5000_30,70003_10000_30</v>
+      </c>
+      <c r="AI25" s="70" t="str">
+        <f t="shared" ref="AI25:AI28" si="25">AI24&amp;","&amp;Y25</f>
+        <v>70003_7500_30,70003_15000_30</v>
+      </c>
+      <c r="AJ25" s="70" t="str">
+        <f t="shared" ref="AJ25:AJ28" si="26">AJ24&amp;","&amp;Z25</f>
+        <v>70003_12500_30,70003_25000_30</v>
+      </c>
+      <c r="AK25" s="70" t="str">
+        <f t="shared" ref="AK25:AK28" si="27">AK24&amp;","&amp;AA25</f>
+        <v>70003_17500_30,70003_35000_30</v>
+      </c>
+      <c r="AL25" s="70" t="str">
+        <f t="shared" ref="AL25:AL28" si="28">AL24&amp;","&amp;AB25</f>
+        <v>70003_25000_30,70003_50000_30</v>
+      </c>
+      <c r="AM25" s="70" t="str">
+        <f t="shared" ref="AM25:AM28" si="29">AM24&amp;","&amp;AC25</f>
+        <v>70003_40000_30,70003_80000_30</v>
+      </c>
+      <c r="AN25" s="70" t="str">
+        <f t="shared" ref="AN25:AN28" si="30">AN24&amp;","&amp;AD25</f>
+        <v>70003_60000_30,70003_120000_30</v>
+      </c>
+      <c r="AO25" s="70" t="str">
+        <f t="shared" ref="AO25:AO28" si="31">AO24&amp;","&amp;AE25</f>
+        <v>70003_90000_30,70003_180000_30</v>
+      </c>
+      <c r="AP25" s="70" t="str">
+        <f t="shared" ref="AP25:AP28" si="32">AP24&amp;","&amp;AF25</f>
+        <v>70003_125000_30,70003_250000_30</v>
+      </c>
+    </row>
+    <row r="26" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E26" s="57">
         <v>3</v>
       </c>
@@ -6924,7 +7668,7 @@
         <v>0.2</v>
       </c>
       <c r="H26" s="77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="I26" s="83">
@@ -6983,8 +7727,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),树木!$Z$4:$AB$18,2,0)*$F26,-1)</f>
         <v>4000000</v>
       </c>
-    </row>
-    <row r="27" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X26" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_20000_20</v>
+      </c>
+      <c r="Y26" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_30000_20</v>
+      </c>
+      <c r="Z26" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_50000_20</v>
+      </c>
+      <c r="AA26" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_70000_20</v>
+      </c>
+      <c r="AB26" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_100000_20</v>
+      </c>
+      <c r="AC26" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_160000_20</v>
+      </c>
+      <c r="AD26" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_240000_20</v>
+      </c>
+      <c r="AE26" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_360000_20</v>
+      </c>
+      <c r="AF26" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_500000_20</v>
+      </c>
+      <c r="AH26" s="70" t="str">
+        <f t="shared" ref="AH26:AH28" si="33">AH25&amp;","&amp;X26</f>
+        <v>70003_5000_30,70003_10000_30,70003_20000_20</v>
+      </c>
+      <c r="AI26" s="70" t="str">
+        <f t="shared" si="25"/>
+        <v>70003_7500_30,70003_15000_30,70003_30000_20</v>
+      </c>
+      <c r="AJ26" s="70" t="str">
+        <f t="shared" si="26"/>
+        <v>70003_12500_30,70003_25000_30,70003_50000_20</v>
+      </c>
+      <c r="AK26" s="70" t="str">
+        <f t="shared" si="27"/>
+        <v>70003_17500_30,70003_35000_30,70003_70000_20</v>
+      </c>
+      <c r="AL26" s="70" t="str">
+        <f t="shared" si="28"/>
+        <v>70003_25000_30,70003_50000_30,70003_100000_20</v>
+      </c>
+      <c r="AM26" s="70" t="str">
+        <f t="shared" si="29"/>
+        <v>70003_40000_30,70003_80000_30,70003_160000_20</v>
+      </c>
+      <c r="AN26" s="70" t="str">
+        <f t="shared" si="30"/>
+        <v>70003_60000_30,70003_120000_30,70003_240000_20</v>
+      </c>
+      <c r="AO26" s="70" t="str">
+        <f t="shared" si="31"/>
+        <v>70003_90000_30,70003_180000_30,70003_360000_20</v>
+      </c>
+      <c r="AP26" s="70" t="str">
+        <f t="shared" si="32"/>
+        <v>70003_125000_30,70003_250000_30,70003_500000_20</v>
+      </c>
+    </row>
+    <row r="27" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E27" s="57">
         <v>4</v>
       </c>
@@ -6995,7 +7811,7 @@
         <v>0.12</v>
       </c>
       <c r="H27" s="77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>4.8</v>
       </c>
       <c r="I27" s="83">
@@ -7054,8 +7870,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),树木!$Z$4:$AB$18,2,0)*$F27,-1)</f>
         <v>8000000</v>
       </c>
-    </row>
-    <row r="28" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X27" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_40000_12</v>
+      </c>
+      <c r="Y27" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_60000_12</v>
+      </c>
+      <c r="Z27" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_100000_12</v>
+      </c>
+      <c r="AA27" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_140000_12</v>
+      </c>
+      <c r="AB27" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_200000_12</v>
+      </c>
+      <c r="AC27" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_320000_12</v>
+      </c>
+      <c r="AD27" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_480000_12</v>
+      </c>
+      <c r="AE27" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_720000_12</v>
+      </c>
+      <c r="AF27" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_1000000_12</v>
+      </c>
+      <c r="AH27" s="70" t="str">
+        <f t="shared" si="33"/>
+        <v>70003_5000_30,70003_10000_30,70003_20000_20,70003_40000_12</v>
+      </c>
+      <c r="AI27" s="70" t="str">
+        <f t="shared" si="25"/>
+        <v>70003_7500_30,70003_15000_30,70003_30000_20,70003_60000_12</v>
+      </c>
+      <c r="AJ27" s="70" t="str">
+        <f t="shared" si="26"/>
+        <v>70003_12500_30,70003_25000_30,70003_50000_20,70003_100000_12</v>
+      </c>
+      <c r="AK27" s="70" t="str">
+        <f t="shared" si="27"/>
+        <v>70003_17500_30,70003_35000_30,70003_70000_20,70003_140000_12</v>
+      </c>
+      <c r="AL27" s="70" t="str">
+        <f t="shared" si="28"/>
+        <v>70003_25000_30,70003_50000_30,70003_100000_20,70003_200000_12</v>
+      </c>
+      <c r="AM27" s="70" t="str">
+        <f t="shared" si="29"/>
+        <v>70003_40000_30,70003_80000_30,70003_160000_20,70003_320000_12</v>
+      </c>
+      <c r="AN27" s="70" t="str">
+        <f t="shared" si="30"/>
+        <v>70003_60000_30,70003_120000_30,70003_240000_20,70003_480000_12</v>
+      </c>
+      <c r="AO27" s="70" t="str">
+        <f t="shared" si="31"/>
+        <v>70003_90000_30,70003_180000_30,70003_360000_20,70003_720000_12</v>
+      </c>
+      <c r="AP27" s="70" t="str">
+        <f t="shared" si="32"/>
+        <v>70003_125000_30,70003_250000_30,70003_500000_20,70003_1000000_12</v>
+      </c>
+    </row>
+    <row r="28" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E28" s="57">
         <v>5</v>
       </c>
@@ -7066,7 +7954,7 @@
         <v>0.08</v>
       </c>
       <c r="H28" s="77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>6.4</v>
       </c>
       <c r="I28" s="83">
@@ -7125,8 +8013,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),树木!$Z$4:$AB$18,2,0)*$F28,-1)</f>
         <v>16000000</v>
       </c>
-    </row>
-    <row r="31" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="X28" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_80000_8</v>
+      </c>
+      <c r="Y28" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_120000_8</v>
+      </c>
+      <c r="Z28" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_200000_8</v>
+      </c>
+      <c r="AA28" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_280000_8</v>
+      </c>
+      <c r="AB28" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_400000_8</v>
+      </c>
+      <c r="AC28" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_640000_8</v>
+      </c>
+      <c r="AD28" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_960000_8</v>
+      </c>
+      <c r="AE28" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_1440000_8</v>
+      </c>
+      <c r="AF28" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>70003_2000000_8</v>
+      </c>
+      <c r="AH28" s="70" t="str">
+        <f t="shared" si="33"/>
+        <v>70003_5000_30,70003_10000_30,70003_20000_20,70003_40000_12,70003_80000_8</v>
+      </c>
+      <c r="AI28" s="70" t="str">
+        <f t="shared" si="25"/>
+        <v>70003_7500_30,70003_15000_30,70003_30000_20,70003_60000_12,70003_120000_8</v>
+      </c>
+      <c r="AJ28" s="70" t="str">
+        <f t="shared" si="26"/>
+        <v>70003_12500_30,70003_25000_30,70003_50000_20,70003_100000_12,70003_200000_8</v>
+      </c>
+      <c r="AK28" s="70" t="str">
+        <f t="shared" si="27"/>
+        <v>70003_17500_30,70003_35000_30,70003_70000_20,70003_140000_12,70003_280000_8</v>
+      </c>
+      <c r="AL28" s="70" t="str">
+        <f t="shared" si="28"/>
+        <v>70003_25000_30,70003_50000_30,70003_100000_20,70003_200000_12,70003_400000_8</v>
+      </c>
+      <c r="AM28" s="70" t="str">
+        <f t="shared" si="29"/>
+        <v>70003_40000_30,70003_80000_30,70003_160000_20,70003_320000_12,70003_640000_8</v>
+      </c>
+      <c r="AN28" s="70" t="str">
+        <f t="shared" si="30"/>
+        <v>70003_60000_30,70003_120000_30,70003_240000_20,70003_480000_12,70003_960000_8</v>
+      </c>
+      <c r="AO28" s="70" t="str">
+        <f t="shared" si="31"/>
+        <v>70003_90000_30,70003_180000_30,70003_360000_20,70003_720000_12,70003_1440000_8</v>
+      </c>
+      <c r="AP28" s="70" t="str">
+        <f t="shared" si="32"/>
+        <v>70003_125000_30,70003_250000_30,70003_500000_20,70003_1000000_12,70003_2000000_8</v>
+      </c>
+    </row>
+    <row r="31" spans="5:42" x14ac:dyDescent="0.15">
       <c r="G31" s="106">
         <f>SUM(G33:G37)</f>
         <v>1</v>
@@ -7135,24 +8095,24 @@
         <f>SUM(H33:H37)</f>
         <v>19.700000000000003</v>
       </c>
-      <c r="I31" s="156" t="s">
+      <c r="I31" s="157" t="s">
         <v>352</v>
       </c>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="157"/>
-      <c r="S31" s="157"/>
-      <c r="T31" s="157"/>
-      <c r="U31" s="157"/>
-      <c r="V31" s="158"/>
-    </row>
-    <row r="32" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="158"/>
+      <c r="V31" s="159"/>
+    </row>
+    <row r="32" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E32" s="57" t="s">
         <v>322</v>
       </c>
@@ -7208,7 +8168,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E33" s="57">
         <v>1</v>
       </c>
@@ -7278,8 +8238,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),矿山!$Z$4:$AB$18,2,0)*$F33,-1)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="34" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X33" s="70" t="str">
+        <f t="shared" ref="X33:AF37" si="34">"70004_"&amp;I33&amp;"_"&amp;$G33*100</f>
+        <v>70004_5000_30</v>
+      </c>
+      <c r="Y33" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_7500_30</v>
+      </c>
+      <c r="Z33" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_12500_30</v>
+      </c>
+      <c r="AA33" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_17500_30</v>
+      </c>
+      <c r="AB33" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_25000_30</v>
+      </c>
+      <c r="AC33" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_40000_30</v>
+      </c>
+      <c r="AD33" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_60000_30</v>
+      </c>
+      <c r="AE33" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_90000_30</v>
+      </c>
+      <c r="AF33" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_125000_30</v>
+      </c>
+      <c r="AH33" s="70" t="str">
+        <f>X33</f>
+        <v>70004_5000_30</v>
+      </c>
+      <c r="AI33" s="70" t="str">
+        <f t="shared" ref="AI33" si="35">Y33</f>
+        <v>70004_7500_30</v>
+      </c>
+      <c r="AJ33" s="70" t="str">
+        <f t="shared" ref="AJ33" si="36">Z33</f>
+        <v>70004_12500_30</v>
+      </c>
+      <c r="AK33" s="70" t="str">
+        <f t="shared" ref="AK33" si="37">AA33</f>
+        <v>70004_17500_30</v>
+      </c>
+      <c r="AL33" s="70" t="str">
+        <f t="shared" ref="AL33" si="38">AB33</f>
+        <v>70004_25000_30</v>
+      </c>
+      <c r="AM33" s="70" t="str">
+        <f t="shared" ref="AM33" si="39">AC33</f>
+        <v>70004_40000_30</v>
+      </c>
+      <c r="AN33" s="70" t="str">
+        <f t="shared" ref="AN33" si="40">AD33</f>
+        <v>70004_60000_30</v>
+      </c>
+      <c r="AO33" s="70" t="str">
+        <f t="shared" ref="AO33" si="41">AE33</f>
+        <v>70004_90000_30</v>
+      </c>
+      <c r="AP33" s="70" t="str">
+        <f t="shared" ref="AP33" si="42">AF33</f>
+        <v>70004_125000_30</v>
+      </c>
+    </row>
+    <row r="34" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E34" s="57">
         <v>2</v>
       </c>
@@ -7290,7 +8322,7 @@
         <v>0.3</v>
       </c>
       <c r="H34" s="77">
-        <f t="shared" ref="H34:H37" si="2">F34*G34</f>
+        <f t="shared" ref="H34:H37" si="43">F34*G34</f>
         <v>3</v>
       </c>
       <c r="I34" s="83">
@@ -7349,8 +8381,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),矿山!$Z$4:$AB$18,2,0)*$F34,-1)</f>
         <v>2000000</v>
       </c>
-    </row>
-    <row r="35" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X34" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_10000_30</v>
+      </c>
+      <c r="Y34" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_15000_30</v>
+      </c>
+      <c r="Z34" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_25000_30</v>
+      </c>
+      <c r="AA34" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_35000_30</v>
+      </c>
+      <c r="AB34" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_50000_30</v>
+      </c>
+      <c r="AC34" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_80000_30</v>
+      </c>
+      <c r="AD34" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_120000_30</v>
+      </c>
+      <c r="AE34" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_180000_30</v>
+      </c>
+      <c r="AF34" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_250000_30</v>
+      </c>
+      <c r="AH34" s="70" t="str">
+        <f>AH33&amp;","&amp;X34</f>
+        <v>70004_5000_30,70004_10000_30</v>
+      </c>
+      <c r="AI34" s="70" t="str">
+        <f t="shared" ref="AI34:AI37" si="44">AI33&amp;","&amp;Y34</f>
+        <v>70004_7500_30,70004_15000_30</v>
+      </c>
+      <c r="AJ34" s="70" t="str">
+        <f t="shared" ref="AJ34:AJ37" si="45">AJ33&amp;","&amp;Z34</f>
+        <v>70004_12500_30,70004_25000_30</v>
+      </c>
+      <c r="AK34" s="70" t="str">
+        <f t="shared" ref="AK34:AK37" si="46">AK33&amp;","&amp;AA34</f>
+        <v>70004_17500_30,70004_35000_30</v>
+      </c>
+      <c r="AL34" s="70" t="str">
+        <f t="shared" ref="AL34:AL37" si="47">AL33&amp;","&amp;AB34</f>
+        <v>70004_25000_30,70004_50000_30</v>
+      </c>
+      <c r="AM34" s="70" t="str">
+        <f t="shared" ref="AM34:AM37" si="48">AM33&amp;","&amp;AC34</f>
+        <v>70004_40000_30,70004_80000_30</v>
+      </c>
+      <c r="AN34" s="70" t="str">
+        <f t="shared" ref="AN34:AN37" si="49">AN33&amp;","&amp;AD34</f>
+        <v>70004_60000_30,70004_120000_30</v>
+      </c>
+      <c r="AO34" s="70" t="str">
+        <f t="shared" ref="AO34:AO37" si="50">AO33&amp;","&amp;AE34</f>
+        <v>70004_90000_30,70004_180000_30</v>
+      </c>
+      <c r="AP34" s="70" t="str">
+        <f t="shared" ref="AP34:AP37" si="51">AP33&amp;","&amp;AF34</f>
+        <v>70004_125000_30,70004_250000_30</v>
+      </c>
+    </row>
+    <row r="35" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E35" s="57">
         <v>3</v>
       </c>
@@ -7361,7 +8465,7 @@
         <v>0.2</v>
       </c>
       <c r="H35" s="77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="I35" s="83">
@@ -7420,8 +8524,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),矿山!$Z$4:$AB$18,2,0)*$F35,-1)</f>
         <v>4000000</v>
       </c>
-    </row>
-    <row r="36" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X35" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_20000_20</v>
+      </c>
+      <c r="Y35" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_30000_20</v>
+      </c>
+      <c r="Z35" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_50000_20</v>
+      </c>
+      <c r="AA35" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_70000_20</v>
+      </c>
+      <c r="AB35" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_100000_20</v>
+      </c>
+      <c r="AC35" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_160000_20</v>
+      </c>
+      <c r="AD35" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_240000_20</v>
+      </c>
+      <c r="AE35" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_360000_20</v>
+      </c>
+      <c r="AF35" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_500000_20</v>
+      </c>
+      <c r="AH35" s="70" t="str">
+        <f t="shared" ref="AH35:AH37" si="52">AH34&amp;","&amp;X35</f>
+        <v>70004_5000_30,70004_10000_30,70004_20000_20</v>
+      </c>
+      <c r="AI35" s="70" t="str">
+        <f t="shared" si="44"/>
+        <v>70004_7500_30,70004_15000_30,70004_30000_20</v>
+      </c>
+      <c r="AJ35" s="70" t="str">
+        <f t="shared" si="45"/>
+        <v>70004_12500_30,70004_25000_30,70004_50000_20</v>
+      </c>
+      <c r="AK35" s="70" t="str">
+        <f t="shared" si="46"/>
+        <v>70004_17500_30,70004_35000_30,70004_70000_20</v>
+      </c>
+      <c r="AL35" s="70" t="str">
+        <f t="shared" si="47"/>
+        <v>70004_25000_30,70004_50000_30,70004_100000_20</v>
+      </c>
+      <c r="AM35" s="70" t="str">
+        <f t="shared" si="48"/>
+        <v>70004_40000_30,70004_80000_30,70004_160000_20</v>
+      </c>
+      <c r="AN35" s="70" t="str">
+        <f t="shared" si="49"/>
+        <v>70004_60000_30,70004_120000_30,70004_240000_20</v>
+      </c>
+      <c r="AO35" s="70" t="str">
+        <f t="shared" si="50"/>
+        <v>70004_90000_30,70004_180000_30,70004_360000_20</v>
+      </c>
+      <c r="AP35" s="70" t="str">
+        <f t="shared" si="51"/>
+        <v>70004_125000_30,70004_250000_30,70004_500000_20</v>
+      </c>
+    </row>
+    <row r="36" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E36" s="57">
         <v>4</v>
       </c>
@@ -7432,7 +8608,7 @@
         <v>0.12</v>
       </c>
       <c r="H36" s="77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="43"/>
         <v>4.8</v>
       </c>
       <c r="I36" s="83">
@@ -7491,8 +8667,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),矿山!$Z$4:$AB$18,2,0)*$F36,-1)</f>
         <v>8000000</v>
       </c>
-    </row>
-    <row r="37" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X36" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_40000_12</v>
+      </c>
+      <c r="Y36" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_60000_12</v>
+      </c>
+      <c r="Z36" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_100000_12</v>
+      </c>
+      <c r="AA36" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_140000_12</v>
+      </c>
+      <c r="AB36" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_200000_12</v>
+      </c>
+      <c r="AC36" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_320000_12</v>
+      </c>
+      <c r="AD36" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_480000_12</v>
+      </c>
+      <c r="AE36" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_720000_12</v>
+      </c>
+      <c r="AF36" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_1000000_12</v>
+      </c>
+      <c r="AH36" s="70" t="str">
+        <f t="shared" si="52"/>
+        <v>70004_5000_30,70004_10000_30,70004_20000_20,70004_40000_12</v>
+      </c>
+      <c r="AI36" s="70" t="str">
+        <f t="shared" si="44"/>
+        <v>70004_7500_30,70004_15000_30,70004_30000_20,70004_60000_12</v>
+      </c>
+      <c r="AJ36" s="70" t="str">
+        <f t="shared" si="45"/>
+        <v>70004_12500_30,70004_25000_30,70004_50000_20,70004_100000_12</v>
+      </c>
+      <c r="AK36" s="70" t="str">
+        <f t="shared" si="46"/>
+        <v>70004_17500_30,70004_35000_30,70004_70000_20,70004_140000_12</v>
+      </c>
+      <c r="AL36" s="70" t="str">
+        <f t="shared" si="47"/>
+        <v>70004_25000_30,70004_50000_30,70004_100000_20,70004_200000_12</v>
+      </c>
+      <c r="AM36" s="70" t="str">
+        <f t="shared" si="48"/>
+        <v>70004_40000_30,70004_80000_30,70004_160000_20,70004_320000_12</v>
+      </c>
+      <c r="AN36" s="70" t="str">
+        <f t="shared" si="49"/>
+        <v>70004_60000_30,70004_120000_30,70004_240000_20,70004_480000_12</v>
+      </c>
+      <c r="AO36" s="70" t="str">
+        <f t="shared" si="50"/>
+        <v>70004_90000_30,70004_180000_30,70004_360000_20,70004_720000_12</v>
+      </c>
+      <c r="AP36" s="70" t="str">
+        <f t="shared" si="51"/>
+        <v>70004_125000_30,70004_250000_30,70004_500000_20,70004_1000000_12</v>
+      </c>
+    </row>
+    <row r="37" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E37" s="57">
         <v>5</v>
       </c>
@@ -7503,7 +8751,7 @@
         <v>0.08</v>
       </c>
       <c r="H37" s="77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="43"/>
         <v>6.4</v>
       </c>
       <c r="I37" s="83">
@@ -7562,8 +8810,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),矿山!$Z$4:$AB$18,2,0)*$F37,-1)</f>
         <v>16000000</v>
       </c>
-    </row>
-    <row r="40" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="X37" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_80000_8</v>
+      </c>
+      <c r="Y37" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_120000_8</v>
+      </c>
+      <c r="Z37" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_200000_8</v>
+      </c>
+      <c r="AA37" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_280000_8</v>
+      </c>
+      <c r="AB37" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_400000_8</v>
+      </c>
+      <c r="AC37" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_640000_8</v>
+      </c>
+      <c r="AD37" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_960000_8</v>
+      </c>
+      <c r="AE37" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_1440000_8</v>
+      </c>
+      <c r="AF37" s="70" t="str">
+        <f t="shared" si="34"/>
+        <v>70004_2000000_8</v>
+      </c>
+      <c r="AH37" s="70" t="str">
+        <f t="shared" si="52"/>
+        <v>70004_5000_30,70004_10000_30,70004_20000_20,70004_40000_12,70004_80000_8</v>
+      </c>
+      <c r="AI37" s="70" t="str">
+        <f t="shared" si="44"/>
+        <v>70004_7500_30,70004_15000_30,70004_30000_20,70004_60000_12,70004_120000_8</v>
+      </c>
+      <c r="AJ37" s="70" t="str">
+        <f t="shared" si="45"/>
+        <v>70004_12500_30,70004_25000_30,70004_50000_20,70004_100000_12,70004_200000_8</v>
+      </c>
+      <c r="AK37" s="70" t="str">
+        <f t="shared" si="46"/>
+        <v>70004_17500_30,70004_35000_30,70004_70000_20,70004_140000_12,70004_280000_8</v>
+      </c>
+      <c r="AL37" s="70" t="str">
+        <f t="shared" si="47"/>
+        <v>70004_25000_30,70004_50000_30,70004_100000_20,70004_200000_12,70004_400000_8</v>
+      </c>
+      <c r="AM37" s="70" t="str">
+        <f t="shared" si="48"/>
+        <v>70004_40000_30,70004_80000_30,70004_160000_20,70004_320000_12,70004_640000_8</v>
+      </c>
+      <c r="AN37" s="70" t="str">
+        <f t="shared" si="49"/>
+        <v>70004_60000_30,70004_120000_30,70004_240000_20,70004_480000_12,70004_960000_8</v>
+      </c>
+      <c r="AO37" s="70" t="str">
+        <f t="shared" si="50"/>
+        <v>70004_90000_30,70004_180000_30,70004_360000_20,70004_720000_12,70004_1440000_8</v>
+      </c>
+      <c r="AP37" s="70" t="str">
+        <f t="shared" si="51"/>
+        <v>70004_125000_30,70004_250000_30,70004_500000_20,70004_1000000_12,70004_2000000_8</v>
+      </c>
+    </row>
+    <row r="40" spans="5:42" x14ac:dyDescent="0.15">
       <c r="G40" s="106">
         <f>SUM(G42:G46)</f>
         <v>1</v>
@@ -7572,24 +8892,24 @@
         <f>SUM(H42:H46)</f>
         <v>19.700000000000003</v>
       </c>
-      <c r="I40" s="156" t="s">
+      <c r="I40" s="157" t="s">
         <v>390</v>
       </c>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="157"/>
-      <c r="O40" s="157"/>
-      <c r="P40" s="157"/>
-      <c r="Q40" s="157"/>
-      <c r="R40" s="157"/>
-      <c r="S40" s="157"/>
-      <c r="T40" s="157"/>
-      <c r="U40" s="157"/>
-      <c r="V40" s="158"/>
-    </row>
-    <row r="41" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="J40" s="158"/>
+      <c r="K40" s="158"/>
+      <c r="L40" s="158"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="158"/>
+      <c r="O40" s="158"/>
+      <c r="P40" s="158"/>
+      <c r="Q40" s="158"/>
+      <c r="R40" s="158"/>
+      <c r="S40" s="158"/>
+      <c r="T40" s="158"/>
+      <c r="U40" s="158"/>
+      <c r="V40" s="159"/>
+    </row>
+    <row r="41" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E41" s="57" t="s">
         <v>322</v>
       </c>
@@ -7645,7 +8965,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="5:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E42" s="57">
         <v>1</v>
       </c>
@@ -7715,8 +9035,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),圣池!$AA$4:$AC$18,2,0)*$F42,-1)</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="43" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X42" s="70" t="str">
+        <f t="shared" ref="X42:AF46" si="53">"70005_"&amp;I42&amp;"_"&amp;$G42*100</f>
+        <v>70005_5000_30</v>
+      </c>
+      <c r="Y42" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_7500_30</v>
+      </c>
+      <c r="Z42" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_12500_30</v>
+      </c>
+      <c r="AA42" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_17500_30</v>
+      </c>
+      <c r="AB42" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_25000_30</v>
+      </c>
+      <c r="AC42" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_40000_30</v>
+      </c>
+      <c r="AD42" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_60000_30</v>
+      </c>
+      <c r="AE42" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_90000_30</v>
+      </c>
+      <c r="AF42" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_125000_30</v>
+      </c>
+      <c r="AH42" s="70" t="str">
+        <f>X42</f>
+        <v>70005_5000_30</v>
+      </c>
+      <c r="AI42" s="70" t="str">
+        <f t="shared" ref="AI42" si="54">Y42</f>
+        <v>70005_7500_30</v>
+      </c>
+      <c r="AJ42" s="70" t="str">
+        <f t="shared" ref="AJ42" si="55">Z42</f>
+        <v>70005_12500_30</v>
+      </c>
+      <c r="AK42" s="70" t="str">
+        <f t="shared" ref="AK42" si="56">AA42</f>
+        <v>70005_17500_30</v>
+      </c>
+      <c r="AL42" s="70" t="str">
+        <f t="shared" ref="AL42" si="57">AB42</f>
+        <v>70005_25000_30</v>
+      </c>
+      <c r="AM42" s="70" t="str">
+        <f t="shared" ref="AM42" si="58">AC42</f>
+        <v>70005_40000_30</v>
+      </c>
+      <c r="AN42" s="70" t="str">
+        <f t="shared" ref="AN42" si="59">AD42</f>
+        <v>70005_60000_30</v>
+      </c>
+      <c r="AO42" s="70" t="str">
+        <f t="shared" ref="AO42" si="60">AE42</f>
+        <v>70005_90000_30</v>
+      </c>
+      <c r="AP42" s="70" t="str">
+        <f t="shared" ref="AP42" si="61">AF42</f>
+        <v>70005_125000_30</v>
+      </c>
+    </row>
+    <row r="43" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E43" s="57">
         <v>2</v>
       </c>
@@ -7727,7 +9119,7 @@
         <v>0.3</v>
       </c>
       <c r="H43" s="77">
-        <f t="shared" ref="H43:H46" si="3">F43*G43</f>
+        <f t="shared" ref="H43:H46" si="62">F43*G43</f>
         <v>3</v>
       </c>
       <c r="I43" s="83">
@@ -7786,8 +9178,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),圣池!$AA$4:$AC$18,2,0)*$F43,-1)</f>
         <v>2000000</v>
       </c>
-    </row>
-    <row r="44" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X43" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_10000_30</v>
+      </c>
+      <c r="Y43" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_15000_30</v>
+      </c>
+      <c r="Z43" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_25000_30</v>
+      </c>
+      <c r="AA43" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_35000_30</v>
+      </c>
+      <c r="AB43" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_50000_30</v>
+      </c>
+      <c r="AC43" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_80000_30</v>
+      </c>
+      <c r="AD43" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_120000_30</v>
+      </c>
+      <c r="AE43" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_180000_30</v>
+      </c>
+      <c r="AF43" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_250000_30</v>
+      </c>
+      <c r="AH43" s="70" t="str">
+        <f>AH42&amp;","&amp;X43</f>
+        <v>70005_5000_30,70005_10000_30</v>
+      </c>
+      <c r="AI43" s="70" t="str">
+        <f t="shared" ref="AI43:AI46" si="63">AI42&amp;","&amp;Y43</f>
+        <v>70005_7500_30,70005_15000_30</v>
+      </c>
+      <c r="AJ43" s="70" t="str">
+        <f t="shared" ref="AJ43:AJ46" si="64">AJ42&amp;","&amp;Z43</f>
+        <v>70005_12500_30,70005_25000_30</v>
+      </c>
+      <c r="AK43" s="70" t="str">
+        <f t="shared" ref="AK43:AK46" si="65">AK42&amp;","&amp;AA43</f>
+        <v>70005_17500_30,70005_35000_30</v>
+      </c>
+      <c r="AL43" s="70" t="str">
+        <f t="shared" ref="AL43:AL46" si="66">AL42&amp;","&amp;AB43</f>
+        <v>70005_25000_30,70005_50000_30</v>
+      </c>
+      <c r="AM43" s="70" t="str">
+        <f t="shared" ref="AM43:AM46" si="67">AM42&amp;","&amp;AC43</f>
+        <v>70005_40000_30,70005_80000_30</v>
+      </c>
+      <c r="AN43" s="70" t="str">
+        <f t="shared" ref="AN43:AN46" si="68">AN42&amp;","&amp;AD43</f>
+        <v>70005_60000_30,70005_120000_30</v>
+      </c>
+      <c r="AO43" s="70" t="str">
+        <f t="shared" ref="AO43:AO46" si="69">AO42&amp;","&amp;AE43</f>
+        <v>70005_90000_30,70005_180000_30</v>
+      </c>
+      <c r="AP43" s="70" t="str">
+        <f t="shared" ref="AP43:AP46" si="70">AP42&amp;","&amp;AF43</f>
+        <v>70005_125000_30,70005_250000_30</v>
+      </c>
+    </row>
+    <row r="44" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E44" s="57">
         <v>3</v>
       </c>
@@ -7798,7 +9262,7 @@
         <v>0.2</v>
       </c>
       <c r="H44" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="62"/>
         <v>4</v>
       </c>
       <c r="I44" s="83">
@@ -7857,8 +9321,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),圣池!$AA$4:$AC$18,2,0)*$F44,-1)</f>
         <v>4000000</v>
       </c>
-    </row>
-    <row r="45" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X44" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_20000_20</v>
+      </c>
+      <c r="Y44" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_30000_20</v>
+      </c>
+      <c r="Z44" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_50000_20</v>
+      </c>
+      <c r="AA44" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_70000_20</v>
+      </c>
+      <c r="AB44" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_100000_20</v>
+      </c>
+      <c r="AC44" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_160000_20</v>
+      </c>
+      <c r="AD44" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_240000_20</v>
+      </c>
+      <c r="AE44" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_360000_20</v>
+      </c>
+      <c r="AF44" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_500000_20</v>
+      </c>
+      <c r="AH44" s="70" t="str">
+        <f t="shared" ref="AH44:AH46" si="71">AH43&amp;","&amp;X44</f>
+        <v>70005_5000_30,70005_10000_30,70005_20000_20</v>
+      </c>
+      <c r="AI44" s="70" t="str">
+        <f t="shared" si="63"/>
+        <v>70005_7500_30,70005_15000_30,70005_30000_20</v>
+      </c>
+      <c r="AJ44" s="70" t="str">
+        <f t="shared" si="64"/>
+        <v>70005_12500_30,70005_25000_30,70005_50000_20</v>
+      </c>
+      <c r="AK44" s="70" t="str">
+        <f t="shared" si="65"/>
+        <v>70005_17500_30,70005_35000_30,70005_70000_20</v>
+      </c>
+      <c r="AL44" s="70" t="str">
+        <f t="shared" si="66"/>
+        <v>70005_25000_30,70005_50000_30,70005_100000_20</v>
+      </c>
+      <c r="AM44" s="70" t="str">
+        <f t="shared" si="67"/>
+        <v>70005_40000_30,70005_80000_30,70005_160000_20</v>
+      </c>
+      <c r="AN44" s="70" t="str">
+        <f t="shared" si="68"/>
+        <v>70005_60000_30,70005_120000_30,70005_240000_20</v>
+      </c>
+      <c r="AO44" s="70" t="str">
+        <f t="shared" si="69"/>
+        <v>70005_90000_30,70005_180000_30,70005_360000_20</v>
+      </c>
+      <c r="AP44" s="70" t="str">
+        <f t="shared" si="70"/>
+        <v>70005_125000_30,70005_250000_30,70005_500000_20</v>
+      </c>
+    </row>
+    <row r="45" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E45" s="57">
         <v>4</v>
       </c>
@@ -7869,7 +9405,7 @@
         <v>0.12</v>
       </c>
       <c r="H45" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="62"/>
         <v>4.8</v>
       </c>
       <c r="I45" s="83">
@@ -7928,8 +9464,80 @@
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),圣池!$AA$4:$AC$18,2,0)*$F45,-1)</f>
         <v>8000000</v>
       </c>
-    </row>
-    <row r="46" spans="5:22" x14ac:dyDescent="0.35">
+      <c r="X45" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_40000_12</v>
+      </c>
+      <c r="Y45" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_60000_12</v>
+      </c>
+      <c r="Z45" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_100000_12</v>
+      </c>
+      <c r="AA45" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_140000_12</v>
+      </c>
+      <c r="AB45" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_200000_12</v>
+      </c>
+      <c r="AC45" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_320000_12</v>
+      </c>
+      <c r="AD45" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_480000_12</v>
+      </c>
+      <c r="AE45" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_720000_12</v>
+      </c>
+      <c r="AF45" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_1000000_12</v>
+      </c>
+      <c r="AH45" s="70" t="str">
+        <f t="shared" si="71"/>
+        <v>70005_5000_30,70005_10000_30,70005_20000_20,70005_40000_12</v>
+      </c>
+      <c r="AI45" s="70" t="str">
+        <f t="shared" si="63"/>
+        <v>70005_7500_30,70005_15000_30,70005_30000_20,70005_60000_12</v>
+      </c>
+      <c r="AJ45" s="70" t="str">
+        <f t="shared" si="64"/>
+        <v>70005_12500_30,70005_25000_30,70005_50000_20,70005_100000_12</v>
+      </c>
+      <c r="AK45" s="70" t="str">
+        <f t="shared" si="65"/>
+        <v>70005_17500_30,70005_35000_30,70005_70000_20,70005_140000_12</v>
+      </c>
+      <c r="AL45" s="70" t="str">
+        <f t="shared" si="66"/>
+        <v>70005_25000_30,70005_50000_30,70005_100000_20,70005_200000_12</v>
+      </c>
+      <c r="AM45" s="70" t="str">
+        <f t="shared" si="67"/>
+        <v>70005_40000_30,70005_80000_30,70005_160000_20,70005_320000_12</v>
+      </c>
+      <c r="AN45" s="70" t="str">
+        <f t="shared" si="68"/>
+        <v>70005_60000_30,70005_120000_30,70005_240000_20,70005_480000_12</v>
+      </c>
+      <c r="AO45" s="70" t="str">
+        <f t="shared" si="69"/>
+        <v>70005_90000_30,70005_180000_30,70005_360000_20,70005_720000_12</v>
+      </c>
+      <c r="AP45" s="70" t="str">
+        <f t="shared" si="70"/>
+        <v>70005_125000_30,70005_250000_30,70005_500000_20,70005_1000000_12</v>
+      </c>
+    </row>
+    <row r="46" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E46" s="57">
         <v>5</v>
       </c>
@@ -7940,7 +9548,7 @@
         <v>0.08</v>
       </c>
       <c r="H46" s="77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="62"/>
         <v>6.4</v>
       </c>
       <c r="I46" s="83">
@@ -7998,6 +9606,78 @@
       <c r="V46" s="143">
         <f>ROUND(VLOOKUP(INT(SUBSTITUTE(V$23,"级","")),圣池!$AA$4:$AC$18,2,0)*$F46,-1)</f>
         <v>16000000</v>
+      </c>
+      <c r="X46" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_80000_8</v>
+      </c>
+      <c r="Y46" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_120000_8</v>
+      </c>
+      <c r="Z46" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_200000_8</v>
+      </c>
+      <c r="AA46" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_280000_8</v>
+      </c>
+      <c r="AB46" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_400000_8</v>
+      </c>
+      <c r="AC46" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_640000_8</v>
+      </c>
+      <c r="AD46" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_960000_8</v>
+      </c>
+      <c r="AE46" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_1440000_8</v>
+      </c>
+      <c r="AF46" s="70" t="str">
+        <f t="shared" si="53"/>
+        <v>70005_2000000_8</v>
+      </c>
+      <c r="AH46" s="70" t="str">
+        <f t="shared" si="71"/>
+        <v>70005_5000_30,70005_10000_30,70005_20000_20,70005_40000_12,70005_80000_8</v>
+      </c>
+      <c r="AI46" s="70" t="str">
+        <f t="shared" si="63"/>
+        <v>70005_7500_30,70005_15000_30,70005_30000_20,70005_60000_12,70005_120000_8</v>
+      </c>
+      <c r="AJ46" s="70" t="str">
+        <f t="shared" si="64"/>
+        <v>70005_12500_30,70005_25000_30,70005_50000_20,70005_100000_12,70005_200000_8</v>
+      </c>
+      <c r="AK46" s="70" t="str">
+        <f t="shared" si="65"/>
+        <v>70005_17500_30,70005_35000_30,70005_70000_20,70005_140000_12,70005_280000_8</v>
+      </c>
+      <c r="AL46" s="70" t="str">
+        <f t="shared" si="66"/>
+        <v>70005_25000_30,70005_50000_30,70005_100000_20,70005_200000_12,70005_400000_8</v>
+      </c>
+      <c r="AM46" s="70" t="str">
+        <f t="shared" si="67"/>
+        <v>70005_40000_30,70005_80000_30,70005_160000_20,70005_320000_12,70005_640000_8</v>
+      </c>
+      <c r="AN46" s="70" t="str">
+        <f t="shared" si="68"/>
+        <v>70005_60000_30,70005_120000_30,70005_240000_20,70005_480000_12,70005_960000_8</v>
+      </c>
+      <c r="AO46" s="70" t="str">
+        <f t="shared" si="69"/>
+        <v>70005_90000_30,70005_180000_30,70005_360000_20,70005_720000_12,70005_1440000_8</v>
+      </c>
+      <c r="AP46" s="70" t="str">
+        <f t="shared" si="70"/>
+        <v>70005_125000_30,70005_250000_30,70005_500000_20,70005_1000000_12,70005_2000000_8</v>
       </c>
     </row>
   </sheetData>
@@ -9288,8 +10968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU203"/>
   <sheetViews>
-    <sheetView topLeftCell="T13" workbookViewId="0">
-      <selection activeCell="AD29" sqref="T29:AD29"/>
+    <sheetView tabSelected="1" topLeftCell="L148" workbookViewId="0">
+      <selection activeCell="Z192" sqref="Z192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -9351,38 +11031,38 @@
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.15">
       <c r="U2" s="12"/>
-      <c r="V2" s="147" t="s">
+      <c r="V2" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="147" t="s">
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="149" t="s">
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="150"/>
-      <c r="AN2" s="150"/>
-      <c r="AO2" s="150"/>
-      <c r="AP2" s="150"/>
-      <c r="AQ2" s="150"/>
-      <c r="AR2" s="150"/>
-      <c r="AS2" s="150"/>
-      <c r="AT2" s="150"/>
-      <c r="AU2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="151"/>
+      <c r="AL2" s="151"/>
+      <c r="AM2" s="151"/>
+      <c r="AN2" s="151"/>
+      <c r="AO2" s="151"/>
+      <c r="AP2" s="151"/>
+      <c r="AQ2" s="151"/>
+      <c r="AR2" s="151"/>
+      <c r="AS2" s="151"/>
+      <c r="AT2" s="151"/>
+      <c r="AU2" s="152"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
@@ -20935,31 +22615,31 @@
       </c>
     </row>
     <row r="87" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="B87" s="152" t="s">
+      <c r="B87" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="152"/>
-      <c r="D87" s="152"/>
-      <c r="E87" s="152" t="s">
+      <c r="C87" s="153"/>
+      <c r="D87" s="153"/>
+      <c r="E87" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="F87" s="152"/>
-      <c r="G87" s="152"/>
-      <c r="H87" s="152" t="s">
+      <c r="F87" s="153"/>
+      <c r="G87" s="153"/>
+      <c r="H87" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="I87" s="152"/>
-      <c r="J87" s="152"/>
-      <c r="K87" s="152" t="s">
+      <c r="I87" s="153"/>
+      <c r="J87" s="153"/>
+      <c r="K87" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="L87" s="152"/>
-      <c r="M87" s="152"/>
-      <c r="N87" s="152" t="s">
+      <c r="L87" s="153"/>
+      <c r="M87" s="153"/>
+      <c r="N87" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="O87" s="152"/>
-      <c r="P87" s="152"/>
+      <c r="O87" s="153"/>
+      <c r="P87" s="153"/>
       <c r="U87" s="39">
         <v>84</v>
       </c>
@@ -35562,10 +37242,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U111"/>
+  <dimension ref="B1:AL111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK32" sqref="AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -35584,20 +37264,24 @@
     <col min="13" max="13" width="15.375" style="56" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.25" style="56" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="14.125" style="56" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="56"/>
+    <col min="20" max="33" width="9" style="56"/>
+    <col min="34" max="34" width="31.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="84.875" style="56" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="83.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:38" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B1" s="69" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:38" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B2" s="69" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B4" s="57" t="s">
         <v>113</v>
       </c>
@@ -35610,14 +37294,14 @@
       </c>
       <c r="G4" s="84"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.35">
       <c r="D5" s="68">
         <f>SUM(D7:D12)</f>
         <v>1</v>
       </c>
       <c r="F5" s="68"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B6" s="57" t="s">
         <v>114</v>
       </c>
@@ -35640,7 +37324,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B7" s="57">
         <v>1</v>
       </c>
@@ -35664,7 +37348,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B8" s="57">
         <v>2</v>
       </c>
@@ -35685,7 +37369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B9" s="57">
         <v>3</v>
       </c>
@@ -35706,7 +37390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B10" s="57">
         <v>4</v>
       </c>
@@ -35730,7 +37414,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B11" s="57">
         <v>5</v>
       </c>
@@ -35749,18 +37433,62 @@
       </c>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.35">
       <c r="I12" s="60"/>
       <c r="J12" s="60"/>
       <c r="K12" s="60"/>
     </row>
-    <row r="14" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="F14" s="68"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="E14" s="147">
+        <v>1</v>
+      </c>
+      <c r="F14" s="147">
+        <v>2</v>
+      </c>
+      <c r="G14" s="147">
+        <v>3</v>
+      </c>
+      <c r="H14" s="147">
+        <v>4</v>
+      </c>
+      <c r="I14" s="147">
+        <v>5</v>
+      </c>
+      <c r="J14" s="147">
+        <v>6</v>
+      </c>
+      <c r="K14" s="147">
+        <v>7</v>
+      </c>
+      <c r="L14" s="147">
+        <v>8</v>
+      </c>
+      <c r="M14" s="147">
+        <v>9</v>
+      </c>
+      <c r="N14" s="147">
+        <v>10</v>
+      </c>
+      <c r="O14" s="147">
+        <v>11</v>
+      </c>
+      <c r="P14" s="147">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="147">
+        <v>13</v>
+      </c>
+      <c r="R14" s="147">
+        <v>14</v>
+      </c>
+      <c r="S14" s="147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B15" s="131" t="s">
         <v>291</v>
       </c>
@@ -35816,8 +37544,24 @@
         <v>197</v>
       </c>
       <c r="T15" s="60"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="AI15" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ15" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="AK15" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL15" s="56" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B16" s="134">
         <v>1</v>
       </c>
@@ -35849,9 +37593,75 @@
       <c r="Q16" s="107"/>
       <c r="R16" s="107"/>
       <c r="S16" s="135"/>
-      <c r="T16" s="60"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T16" s="60">
+        <v>29</v>
+      </c>
+      <c r="U16" s="56" t="str">
+        <f>IF(E16=0,"",E$14&amp;"_1_"&amp;E16*1000)</f>
+        <v>1_1_300</v>
+      </c>
+      <c r="V16" s="56" t="str">
+        <f t="shared" ref="V16:Z16" si="1">IF(F16=0,"",F$14&amp;"_1_"&amp;F16*1000)</f>
+        <v>2_1_150</v>
+      </c>
+      <c r="W16" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>3_1_50</v>
+      </c>
+      <c r="X16" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y16" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z16" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA16" s="56" t="str">
+        <f t="shared" ref="AA16" si="2">IF(K16=0,"",K$14&amp;"_1_"&amp;K16*1000)</f>
+        <v/>
+      </c>
+      <c r="AB16" s="56" t="str">
+        <f t="shared" ref="AB16" si="3">IF(L16=0,"",L$14&amp;"_1_"&amp;L16*1000)</f>
+        <v/>
+      </c>
+      <c r="AC16" s="56" t="str">
+        <f t="shared" ref="AC16" si="4">IF(M16=0,"",M$14&amp;"_1_"&amp;M16*1000)</f>
+        <v/>
+      </c>
+      <c r="AD16" s="56" t="str">
+        <f t="shared" ref="AD16:AE16" si="5">IF(N16=0,"",N$14&amp;"_1_"&amp;N16*1000)</f>
+        <v/>
+      </c>
+      <c r="AE16" s="56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG16" s="57">
+        <v>29</v>
+      </c>
+      <c r="AH16" s="57" t="str">
+        <f>U16&amp;","&amp;V16&amp;","&amp;W16</f>
+        <v>1_1_300,2_1_150,3_1_50</v>
+      </c>
+      <c r="AI16" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ16" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="AK16" s="57" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL16" s="56" t="str">
+        <f>AH16&amp;","&amp;AI16&amp;","&amp;AJ16&amp;","&amp;AK16&amp;",7001_5_50"</f>
+        <v>1_1_300,2_1_150,3_1_50,70002_5000_75,70002_10000_75,70002_20000_50,70002_40000_30,70002_80000_20,70003_5000_30,70003_10000_30,70003_20000_20,70003_40000_12,70003_80000_8,70004_5000_30,70004_10000_30,70004_20000_20,70004_40000_12,70004_80000_8,7001_5_50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B17" s="134">
         <f>C16+1</f>
         <v>30</v>
@@ -35887,15 +37697,81 @@
       <c r="Q17" s="107"/>
       <c r="R17" s="107"/>
       <c r="S17" s="135"/>
-      <c r="T17" s="60"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T17" s="60">
+        <v>39</v>
+      </c>
+      <c r="U17" s="56" t="str">
+        <f t="shared" ref="U17:U23" si="6">IF(E17=0,"",E$14&amp;"_1_"&amp;E17*1000)</f>
+        <v>1_1_150</v>
+      </c>
+      <c r="V17" s="56" t="str">
+        <f t="shared" ref="V17:V23" si="7">IF(F17=0,"",F$14&amp;"_1_"&amp;F17*1000)</f>
+        <v>2_1_200</v>
+      </c>
+      <c r="W17" s="56" t="str">
+        <f t="shared" ref="W17:W23" si="8">IF(G17=0,"",G$14&amp;"_1_"&amp;G17*1000)</f>
+        <v>3_1_100</v>
+      </c>
+      <c r="X17" s="56" t="str">
+        <f t="shared" ref="X17:X23" si="9">IF(H17=0,"",H$14&amp;"_1_"&amp;H17*1000)</f>
+        <v>4_1_50</v>
+      </c>
+      <c r="Y17" s="56" t="str">
+        <f t="shared" ref="Y17:Y23" si="10">IF(I17=0,"",I$14&amp;"_1_"&amp;I17*1000)</f>
+        <v/>
+      </c>
+      <c r="Z17" s="56" t="str">
+        <f t="shared" ref="Z17:Z23" si="11">IF(J17=0,"",J$14&amp;"_1_"&amp;J17*1000)</f>
+        <v/>
+      </c>
+      <c r="AA17" s="56" t="str">
+        <f t="shared" ref="AA17:AA23" si="12">IF(K17=0,"",K$14&amp;"_1_"&amp;K17*1000)</f>
+        <v/>
+      </c>
+      <c r="AB17" s="56" t="str">
+        <f t="shared" ref="AB17:AB23" si="13">IF(L17=0,"",L$14&amp;"_1_"&amp;L17*1000)</f>
+        <v/>
+      </c>
+      <c r="AC17" s="56" t="str">
+        <f t="shared" ref="AC17:AC23" si="14">IF(M17=0,"",M$14&amp;"_1_"&amp;M17*1000)</f>
+        <v/>
+      </c>
+      <c r="AD17" s="56" t="str">
+        <f t="shared" ref="AD17:AD23" si="15">IF(N17=0,"",N$14&amp;"_1_"&amp;N17*1000)</f>
+        <v/>
+      </c>
+      <c r="AE17" s="56" t="str">
+        <f t="shared" ref="AE17:AE23" si="16">IF(O17=0,"",O$14&amp;"_1_"&amp;O17*1000)</f>
+        <v/>
+      </c>
+      <c r="AG17" s="57">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="57" t="str">
+        <f>U17&amp;","&amp;V17&amp;","&amp;W17&amp;","&amp;X17</f>
+        <v>1_1_150,2_1_200,3_1_100,4_1_50</v>
+      </c>
+      <c r="AI17" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ17" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="AK17" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="AL17" s="56" t="str">
+        <f t="shared" ref="AL17:AL24" si="17">AH17&amp;","&amp;AI17&amp;","&amp;AJ17&amp;","&amp;AK17&amp;",7001_5_50"</f>
+        <v>1_1_150,2_1_200,3_1_100,4_1_50,70002_7500_75,70002_15000_75,70002_30000_50,70002_60000_30,70002_120000_20,70003_7500_30,70003_15000_30,70003_30000_20,70003_60000_12,70003_120000_8,70004_7500_30,70004_15000_30,70004_30000_20,70004_60000_12,70004_120000_8,7001_5_50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B18" s="134">
-        <f t="shared" ref="B18:B28" si="1">C17+1</f>
+        <f t="shared" ref="B18:B28" si="18">C17+1</f>
         <v>40</v>
       </c>
       <c r="C18" s="58">
-        <f t="shared" ref="C18:C23" si="2">C17+10</f>
+        <f t="shared" ref="C18:C23" si="19">C17+10</f>
         <v>49</v>
       </c>
       <c r="D18" s="107">
@@ -35925,15 +37801,81 @@
       <c r="Q18" s="107"/>
       <c r="R18" s="107"/>
       <c r="S18" s="135"/>
-      <c r="T18" s="60"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T18" s="60">
+        <v>49</v>
+      </c>
+      <c r="U18" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V18" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v>2_1_200</v>
+      </c>
+      <c r="W18" s="56" t="str">
+        <f t="shared" si="8"/>
+        <v>3_1_150</v>
+      </c>
+      <c r="X18" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>4_1_100</v>
+      </c>
+      <c r="Y18" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>5_1_50</v>
+      </c>
+      <c r="Z18" s="56" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA18" s="56" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB18" s="56" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC18" s="56" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD18" s="56" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE18" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AG18" s="57">
+        <v>49</v>
+      </c>
+      <c r="AH18" s="57" t="str">
+        <f>V18&amp;","&amp;W18&amp;","&amp;X18&amp;","&amp;Y18</f>
+        <v>2_1_200,3_1_150,4_1_100,5_1_50</v>
+      </c>
+      <c r="AI18" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ18" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK18" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL18" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>2_1_200,3_1_150,4_1_100,5_1_50,70002_12500_75,70002_25000_75,70002_50000_50,70002_100000_30,70002_200000_20,70003_12500_30,70003_25000_30,70003_50000_20,70003_100000_12,70003_200000_8,70004_12500_30,70004_25000_30,70004_50000_20,70004_100000_12,70004_200000_8,7001_5_50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B19" s="134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="C19" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>59</v>
       </c>
       <c r="D19" s="107">
@@ -35963,15 +37905,81 @@
       <c r="Q19" s="107"/>
       <c r="R19" s="107"/>
       <c r="S19" s="135"/>
-      <c r="T19" s="60"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T19" s="60">
+        <v>59</v>
+      </c>
+      <c r="U19" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V19" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W19" s="56" t="str">
+        <f t="shared" si="8"/>
+        <v>3_1_200</v>
+      </c>
+      <c r="X19" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>4_1_150</v>
+      </c>
+      <c r="Y19" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>5_1_100</v>
+      </c>
+      <c r="Z19" s="56" t="str">
+        <f t="shared" si="11"/>
+        <v>6_1_50</v>
+      </c>
+      <c r="AA19" s="56" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB19" s="56" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC19" s="56" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD19" s="56" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE19" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AG19" s="57">
+        <v>59</v>
+      </c>
+      <c r="AH19" s="57" t="str">
+        <f>W19&amp;","&amp;X19&amp;","&amp;Y19&amp;","&amp;Z19</f>
+        <v>3_1_200,4_1_150,5_1_100,6_1_50</v>
+      </c>
+      <c r="AI19" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ19" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="AK19" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL19" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>3_1_200,4_1_150,5_1_100,6_1_50,70002_17500_75,70002_35000_75,70002_70000_50,70002_140000_30,70002_280000_20,70003_17500_30,70003_35000_30,70003_70000_20,70003_140000_12,70003_280000_8,70004_17500_30,70004_35000_30,70004_70000_20,70004_140000_12,70004_280000_8,7001_5_50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B20" s="134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="C20" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="D20" s="107">
@@ -36001,15 +38009,81 @@
       <c r="Q20" s="107"/>
       <c r="R20" s="107"/>
       <c r="S20" s="135"/>
-      <c r="T20" s="60"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T20" s="60">
+        <v>69</v>
+      </c>
+      <c r="U20" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V20" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W20" s="56" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X20" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v>4_1_200</v>
+      </c>
+      <c r="Y20" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>5_1_150</v>
+      </c>
+      <c r="Z20" s="56" t="str">
+        <f t="shared" si="11"/>
+        <v>6_1_100</v>
+      </c>
+      <c r="AA20" s="56" t="str">
+        <f t="shared" si="12"/>
+        <v>7_1_50</v>
+      </c>
+      <c r="AB20" s="56" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC20" s="56" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD20" s="56" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE20" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AG20" s="57">
+        <v>69</v>
+      </c>
+      <c r="AH20" s="57" t="str">
+        <f>X20&amp;","&amp;Y20&amp;","&amp;Z20&amp;","&amp;AA20</f>
+        <v>4_1_200,5_1_150,6_1_100,7_1_50</v>
+      </c>
+      <c r="AI20" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ20" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="AK20" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL20" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>4_1_200,5_1_150,6_1_100,7_1_50,70002_25000_75,70002_50000_75,70002_100000_50,70002_200000_30,70002_400000_20,70003_25000_30,70003_50000_30,70003_100000_20,70003_200000_12,70003_400000_8,70004_25000_30,70004_50000_30,70004_100000_20,70004_200000_12,70004_400000_8,7001_5_50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B21" s="134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="C21" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>79</v>
       </c>
       <c r="D21" s="107">
@@ -36039,15 +38113,81 @@
       <c r="Q21" s="107"/>
       <c r="R21" s="107"/>
       <c r="S21" s="135"/>
-      <c r="T21" s="60"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T21" s="60">
+        <v>79</v>
+      </c>
+      <c r="U21" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V21" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W21" s="56" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X21" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y21" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v>5_1_200</v>
+      </c>
+      <c r="Z21" s="56" t="str">
+        <f t="shared" si="11"/>
+        <v>6_1_150</v>
+      </c>
+      <c r="AA21" s="56" t="str">
+        <f t="shared" si="12"/>
+        <v>7_1_100</v>
+      </c>
+      <c r="AB21" s="56" t="str">
+        <f t="shared" si="13"/>
+        <v>8_1_50</v>
+      </c>
+      <c r="AC21" s="56" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD21" s="56" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE21" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AG21" s="57">
+        <v>79</v>
+      </c>
+      <c r="AH21" s="57" t="str">
+        <f>Y21&amp;","&amp;Z21&amp;","&amp;AA21&amp;","&amp;AB21</f>
+        <v>5_1_200,6_1_150,7_1_100,8_1_50</v>
+      </c>
+      <c r="AI21" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ21" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK21" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL21" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>5_1_200,6_1_150,7_1_100,8_1_50,70002_40000_75,70002_80000_75,70002_160000_50,70002_320000_30,70002_640000_20,70003_40000_30,70003_80000_30,70003_160000_20,70003_320000_12,70003_640000_8,70004_40000_30,70004_80000_30,70004_160000_20,70004_320000_12,70004_640000_8,7001_5_50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B22" s="134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="C22" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>89</v>
       </c>
       <c r="D22" s="107">
@@ -36077,15 +38217,81 @@
       <c r="Q22" s="107"/>
       <c r="R22" s="107"/>
       <c r="S22" s="135"/>
-      <c r="T22" s="60"/>
-    </row>
-    <row r="23" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T22" s="60">
+        <v>89</v>
+      </c>
+      <c r="U22" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V22" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W22" s="56" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X22" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y22" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z22" s="56" t="str">
+        <f t="shared" si="11"/>
+        <v>6_1_200</v>
+      </c>
+      <c r="AA22" s="56" t="str">
+        <f t="shared" si="12"/>
+        <v>7_1_150</v>
+      </c>
+      <c r="AB22" s="56" t="str">
+        <f t="shared" si="13"/>
+        <v>8_1_100</v>
+      </c>
+      <c r="AC22" s="56" t="str">
+        <f t="shared" si="14"/>
+        <v>9_1_50</v>
+      </c>
+      <c r="AD22" s="56" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE22" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AG22" s="57">
+        <v>89</v>
+      </c>
+      <c r="AH22" s="57" t="str">
+        <f>Z22&amp;","&amp;AA22&amp;","&amp;AB22&amp;","&amp;AC22</f>
+        <v>6_1_200,7_1_150,8_1_100,9_1_50</v>
+      </c>
+      <c r="AI22" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ22" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="AK22" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL22" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>6_1_200,7_1_150,8_1_100,9_1_50,70002_60000_75,70002_120000_75,70002_240000_50,70002_480000_30,70002_960000_20,70003_60000_30,70003_120000_30,70003_240000_20,70003_480000_12,70003_960000_8,70004_60000_30,70004_120000_30,70004_240000_20,70004_480000_12,70004_960000_8,7001_5_50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="C23" s="137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>99</v>
       </c>
       <c r="D23" s="138">
@@ -36115,15 +38321,81 @@
       <c r="Q23" s="138"/>
       <c r="R23" s="138"/>
       <c r="S23" s="139"/>
-      <c r="T23" s="60"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T23" s="60">
+        <v>99</v>
+      </c>
+      <c r="U23" s="56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V23" s="56" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W23" s="56" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X23" s="56" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y23" s="56" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z23" s="56" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA23" s="56" t="str">
+        <f t="shared" si="12"/>
+        <v>7_1_200</v>
+      </c>
+      <c r="AB23" s="56" t="str">
+        <f t="shared" si="13"/>
+        <v>8_1_150</v>
+      </c>
+      <c r="AC23" s="56" t="str">
+        <f t="shared" si="14"/>
+        <v>9_1_100</v>
+      </c>
+      <c r="AD23" s="56" t="str">
+        <f t="shared" si="15"/>
+        <v>10_1_50</v>
+      </c>
+      <c r="AE23" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AG23" s="57">
+        <v>99</v>
+      </c>
+      <c r="AH23" s="57" t="str">
+        <f>AA23&amp;","&amp;AB23&amp;","&amp;AC23&amp;","&amp;AD23</f>
+        <v>7_1_200,8_1_150,9_1_100,10_1_50</v>
+      </c>
+      <c r="AI23" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ23" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="AK23" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL23" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>7_1_200,8_1_150,9_1_100,10_1_50,70002_90000_75,70002_180000_75,70002_360000_50,70002_720000_30,70002_1440000_20,70003_90000_30,70003_180000_30,70003_360000_20,70003_720000_12,70003_1440000_8,70004_90000_30,70004_180000_30,70004_360000_20,70004_720000_12,70004_1440000_8,7001_5_50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B24" s="129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="C24" s="129">
-        <f t="shared" ref="C24" si="3">C23+10</f>
+        <f t="shared" ref="C24" si="20">C23+10</f>
         <v>109</v>
       </c>
       <c r="D24" s="130">
@@ -36153,19 +38425,85 @@
       <c r="Q24" s="130"/>
       <c r="R24" s="130"/>
       <c r="S24" s="130"/>
-      <c r="T24" s="60"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T24" s="60">
+        <v>109</v>
+      </c>
+      <c r="U24" s="56" t="str">
+        <f t="shared" ref="U24" si="21">IF(E24=0,"",E$14&amp;"_1_"&amp;E24*1000)</f>
+        <v/>
+      </c>
+      <c r="V24" s="56" t="str">
+        <f t="shared" ref="V24" si="22">IF(F24=0,"",F$14&amp;"_1_"&amp;F24*1000)</f>
+        <v/>
+      </c>
+      <c r="W24" s="56" t="str">
+        <f t="shared" ref="W24" si="23">IF(G24=0,"",G$14&amp;"_1_"&amp;G24*1000)</f>
+        <v/>
+      </c>
+      <c r="X24" s="56" t="str">
+        <f t="shared" ref="X24" si="24">IF(H24=0,"",H$14&amp;"_1_"&amp;H24*1000)</f>
+        <v/>
+      </c>
+      <c r="Y24" s="56" t="str">
+        <f t="shared" ref="Y24" si="25">IF(I24=0,"",I$14&amp;"_1_"&amp;I24*1000)</f>
+        <v/>
+      </c>
+      <c r="Z24" s="56" t="str">
+        <f t="shared" ref="Z24" si="26">IF(J24=0,"",J$14&amp;"_1_"&amp;J24*1000)</f>
+        <v/>
+      </c>
+      <c r="AA24" s="56" t="str">
+        <f t="shared" ref="AA24" si="27">IF(K24=0,"",K$14&amp;"_1_"&amp;K24*1000)</f>
+        <v/>
+      </c>
+      <c r="AB24" s="56" t="str">
+        <f t="shared" ref="AB24" si="28">IF(L24=0,"",L$14&amp;"_1_"&amp;L24*1000)</f>
+        <v>8_1_200</v>
+      </c>
+      <c r="AC24" s="56" t="str">
+        <f t="shared" ref="AC24" si="29">IF(M24=0,"",M$14&amp;"_1_"&amp;M24*1000)</f>
+        <v>9_1_150</v>
+      </c>
+      <c r="AD24" s="56" t="str">
+        <f t="shared" ref="AD24" si="30">IF(N24=0,"",N$14&amp;"_1_"&amp;N24*1000)</f>
+        <v>10_1_100</v>
+      </c>
+      <c r="AE24" s="56" t="str">
+        <f t="shared" ref="AE24" si="31">IF(O24=0,"",O$14&amp;"_1_"&amp;O24*1000)</f>
+        <v>11_1_50</v>
+      </c>
+      <c r="AG24" s="57">
+        <v>109</v>
+      </c>
+      <c r="AH24" s="57" t="str">
+        <f>AB24&amp;","&amp;AC24&amp;","&amp;AD24&amp;","&amp;AE24</f>
+        <v>8_1_200,9_1_150,10_1_100,11_1_50</v>
+      </c>
+      <c r="AI24" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ24" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK24" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL24" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>8_1_200,9_1_150,10_1_100,11_1_50,70002_125000_75,70002_250000_75,70002_500000_50,70002_1000000_30,70002_2000000_20,70003_125000_30,70003_250000_30,70003_500000_20,70003_1000000_12,70003_2000000_8,70004_125000_30,70004_250000_30,70004_500000_20,70004_1000000_12,70004_2000000_8,7001_5_50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B25" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="C25" s="123">
-        <f t="shared" ref="C25:C28" si="4">C24+10</f>
+        <f t="shared" ref="C25:C28" si="32">C24+10</f>
         <v>119</v>
       </c>
       <c r="D25" s="128">
-        <f t="shared" ref="D25:D28" si="5">SUM(E25:S25)</f>
+        <f t="shared" ref="D25:D28" si="33">SUM(E25:S25)</f>
         <v>0.49999999999999994</v>
       </c>
       <c r="E25" s="128"/>
@@ -36192,17 +38530,17 @@
       <c r="R25" s="128"/>
       <c r="S25" s="128"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B26" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="C26" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>129</v>
       </c>
       <c r="D26" s="128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="E26" s="128"/>
@@ -36229,17 +38567,17 @@
       <c r="R26" s="128"/>
       <c r="S26" s="128"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B27" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="C27" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>139</v>
       </c>
       <c r="D27" s="128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="E27" s="128"/>
@@ -36266,17 +38604,17 @@
       </c>
       <c r="S27" s="128"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B28" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>140</v>
       </c>
       <c r="C28" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="32"/>
         <v>149</v>
       </c>
       <c r="D28" s="128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="33"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="E28" s="128"/>
@@ -36303,11 +38641,11 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
@@ -36357,7 +38695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B31" s="57" t="s">
         <v>291</v>
       </c>
@@ -36413,7 +38751,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B32" s="57">
         <v>1</v>
       </c>
@@ -36425,63 +38763,63 @@
         <v>307.2</v>
       </c>
       <c r="E32" s="57">
-        <f t="shared" ref="E32:S44" si="6">INDEX($B$15:$S$28,MATCH($B32,$B$15:$B$28,0),MATCH(E$31,$B$15:$S$15,0))*$D$4</f>
+        <f t="shared" ref="E32:S44" si="34">INDEX($B$15:$S$28,MATCH($B32,$B$15:$B$28,0),MATCH(E$31,$B$15:$S$15,0))*$D$4</f>
         <v>115.19999999999999</v>
       </c>
       <c r="F32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="G32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="H32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S32" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -36499,877 +38837,877 @@
         <v>518.40000000000009</v>
       </c>
       <c r="E33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="F33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="G33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="H33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="I33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S33" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" s="57">
-        <f t="shared" ref="B34:B44" si="7">C33+1</f>
+        <f t="shared" ref="B34:B44" si="35">C33+1</f>
         <v>40</v>
       </c>
       <c r="C34" s="57">
-        <f t="shared" ref="C34:C44" si="8">C33+10</f>
+        <f t="shared" ref="C34:C44" si="36">C33+10</f>
         <v>49</v>
       </c>
       <c r="D34" s="57">
-        <f t="shared" ref="D34:D44" si="9">E34+F34*2^(F$30-1)+G34*2^(G$30-1)+H34*2^(H$30-1)+I34*2^(I$30-1)+J34*2^(J$30-1)+K34*2^(K$30-1)+L34*2^(L$30-1)+M34*2^(M$30-1)+N34*2^(N$30-1)+O34*2^(O$30-1)+P34*2^(P$30-1)+Q34*2^(Q$30-1)+R34*2^(R$30-1)+S34*2^(S$30-1)</f>
+        <f t="shared" ref="D34:D44" si="37">E34+F34*2^(F$30-1)+G34*2^(G$30-1)+H34*2^(H$30-1)+I34*2^(I$30-1)+J34*2^(J$30-1)+K34*2^(K$30-1)+L34*2^(L$30-1)+M34*2^(M$30-1)+N34*2^(N$30-1)+O34*2^(O$30-1)+P34*2^(P$30-1)+Q34*2^(Q$30-1)+R34*2^(R$30-1)+S34*2^(S$30-1)</f>
         <v>998.40000000000009</v>
       </c>
       <c r="E34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="G34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="H34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="I34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="J34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S34" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="C35" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>59</v>
       </c>
       <c r="D35" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>1996.8000000000002</v>
       </c>
       <c r="E35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="H35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="I35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="J35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="K35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S35" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>60</v>
       </c>
       <c r="C36" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>69</v>
       </c>
       <c r="D36" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>3993.6000000000004</v>
       </c>
       <c r="E36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="I36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="J36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="K36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="L36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S36" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>70</v>
       </c>
       <c r="C37" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>79</v>
       </c>
       <c r="D37" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>7987.2000000000007</v>
       </c>
       <c r="E37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="J37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="K37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="L37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="M37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S37" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>80</v>
       </c>
       <c r="C38" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>89</v>
       </c>
       <c r="D38" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>15974.400000000001</v>
       </c>
       <c r="E38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="K38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="L38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="M38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="N38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S38" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>90</v>
       </c>
       <c r="C39" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>99</v>
       </c>
       <c r="D39" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>31948.800000000003</v>
       </c>
       <c r="E39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="L39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="M39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="N39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="O39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S39" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="C40" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>109</v>
       </c>
       <c r="D40" s="123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>63897.600000000006</v>
       </c>
       <c r="E40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="M40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="N40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="O40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="P40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S40" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B41" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>110</v>
       </c>
       <c r="C41" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>119</v>
       </c>
       <c r="D41" s="123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>127795.20000000001</v>
       </c>
       <c r="E41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="N41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="O41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="P41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="Q41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S41" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>120</v>
       </c>
       <c r="C42" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="D42" s="123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>255590.40000000002</v>
       </c>
       <c r="E42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="O42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="P42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="Q42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="R42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S42" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B43" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>130</v>
       </c>
       <c r="C43" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>139</v>
       </c>
       <c r="D43" s="123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>511180.80000000005</v>
       </c>
       <c r="E43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="P43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="Q43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="R43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
       <c r="S43" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B44" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="35"/>
         <v>140</v>
       </c>
       <c r="C44" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="36"/>
         <v>149</v>
       </c>
       <c r="D44" s="123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="37"/>
         <v>1022361.6000000001</v>
       </c>
       <c r="E44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>76.800000000000011</v>
       </c>
       <c r="Q44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>57.599999999999994</v>
       </c>
       <c r="R44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>38.400000000000006</v>
       </c>
       <c r="S44" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>19.200000000000003</v>
       </c>
     </row>
@@ -37516,11 +39854,11 @@
       </c>
       <c r="P48" s="60"/>
       <c r="Q48" s="56">
-        <f t="shared" ref="Q48:Q55" si="10">LEN(N48)</f>
+        <f t="shared" ref="Q48:Q55" si="38">LEN(N48)</f>
         <v>6</v>
       </c>
       <c r="R48" s="56">
-        <f t="shared" ref="R48:R55" si="11">LEN(O48)</f>
+        <f t="shared" ref="R48:R55" si="39">LEN(O48)</f>
         <v>6</v>
       </c>
       <c r="S48" s="60"/>
@@ -37539,7 +39877,7 @@
         <v>3.62</v>
       </c>
       <c r="E49" s="57">
-        <f t="shared" ref="E49:E60" si="12">D49*(1+I49)*D33+H49</f>
+        <f t="shared" ref="E49:E60" si="40">D49*(1+I49)*D33+H49</f>
         <v>2918.5920000000001</v>
       </c>
       <c r="F49" s="57">
@@ -37551,7 +39889,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="57">
-        <f t="shared" ref="H49:H60" si="13">D33/5</f>
+        <f t="shared" ref="H49:H60" si="41">D33/5</f>
         <v>103.68000000000002</v>
       </c>
       <c r="I49" s="105">
@@ -37565,7 +39903,7 @@
         <v>7.6548750000000005</v>
       </c>
       <c r="L49" s="57">
-        <f t="shared" ref="L49:L60" si="14">D33*I49</f>
+        <f t="shared" ref="L49:L60" si="42">D33*I49</f>
         <v>259.20000000000005</v>
       </c>
       <c r="M49" s="57">
@@ -37573,7 +39911,7 @@
         <v>1500</v>
       </c>
       <c r="N49" s="98">
-        <f t="shared" ref="N49:N60" si="15">M49*L49</f>
+        <f t="shared" ref="N49:N60" si="43">M49*L49</f>
         <v>388800.00000000006</v>
       </c>
       <c r="O49" s="60">
@@ -37581,21 +39919,21 @@
         <v>330480</v>
       </c>
       <c r="Q49" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="R49" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B50" s="57">
-        <f t="shared" ref="B50:B60" si="16">C49+1</f>
+        <f t="shared" ref="B50:B60" si="44">C49+1</f>
         <v>40</v>
       </c>
       <c r="C50" s="57">
-        <f t="shared" ref="C50:C60" si="17">C49+10</f>
+        <f t="shared" ref="C50:C60" si="45">C49+10</f>
         <v>49</v>
       </c>
       <c r="D50" s="57">
@@ -37603,7 +39941,7 @@
         <v>6.3599999999999994</v>
       </c>
       <c r="E50" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>9724.4160000000011</v>
       </c>
       <c r="F50" s="57">
@@ -37615,7 +39953,7 @@
         <v>7</v>
       </c>
       <c r="H50" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>199.68</v>
       </c>
       <c r="I50" s="105">
@@ -37629,7 +39967,7 @@
         <v>6.7594687499999999</v>
       </c>
       <c r="L50" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>499.20000000000005</v>
       </c>
       <c r="M50" s="57">
@@ -37637,7 +39975,7 @@
         <v>2500</v>
       </c>
       <c r="N50" s="98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>1248000</v>
       </c>
       <c r="O50" s="60">
@@ -37645,11 +39983,11 @@
         <v>1202880</v>
       </c>
       <c r="Q50" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="R50" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="T50" s="60"/>
@@ -37657,11 +39995,11 @@
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B51" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="C51" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>59</v>
       </c>
       <c r="D51" s="57">
@@ -37669,7 +40007,7 @@
         <v>11.129999999999999</v>
       </c>
       <c r="E51" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>33735.936000000002</v>
       </c>
       <c r="F51" s="57">
@@ -37681,7 +40019,7 @@
         <v>8</v>
       </c>
       <c r="H51" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>399.36</v>
       </c>
       <c r="I51" s="105">
@@ -37695,7 +40033,7 @@
         <v>11.713546875000002</v>
       </c>
       <c r="L51" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>998.40000000000009</v>
       </c>
       <c r="M51" s="57">
@@ -37703,7 +40041,7 @@
         <v>3500</v>
       </c>
       <c r="N51" s="98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>3494400.0000000005</v>
       </c>
       <c r="O51" s="60">
@@ -37711,21 +40049,21 @@
         <v>2475640</v>
       </c>
       <c r="Q51" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="R51" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B52" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>60</v>
       </c>
       <c r="C52" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>69</v>
       </c>
       <c r="D52" s="57">
@@ -37733,7 +40071,7 @@
         <v>18.66</v>
       </c>
       <c r="E52" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>112579.58400000002</v>
       </c>
       <c r="F52" s="57">
@@ -37745,7 +40083,7 @@
         <v>9</v>
       </c>
       <c r="H52" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>798.72</v>
       </c>
       <c r="I52" s="105">
@@ -37759,7 +40097,7 @@
         <v>9.8484492187500017</v>
       </c>
       <c r="L52" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>1996.8000000000002</v>
       </c>
       <c r="M52" s="57">
@@ -37767,7 +40105,7 @@
         <v>5000</v>
       </c>
       <c r="N52" s="98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>9984000</v>
       </c>
       <c r="O52" s="60">
@@ -37775,21 +40113,21 @@
         <v>10220080</v>
       </c>
       <c r="Q52" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="R52" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B53" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>70</v>
       </c>
       <c r="C53" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>79</v>
       </c>
       <c r="D53" s="57">
@@ -37797,7 +40135,7 @@
         <v>29.75</v>
       </c>
       <c r="E53" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>358026.24000000005</v>
       </c>
       <c r="F53" s="57">
@@ -37809,7 +40147,7 @@
         <v>9</v>
       </c>
       <c r="H53" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>1597.44</v>
       </c>
       <c r="I53" s="105">
@@ -37823,7 +40161,7 @@
         <v>7.9495341796875012</v>
       </c>
       <c r="L53" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>3993.6000000000004</v>
       </c>
       <c r="M53" s="57">
@@ -37831,7 +40169,7 @@
         <v>8000</v>
       </c>
       <c r="N53" s="98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>31948800.000000004</v>
       </c>
       <c r="O53" s="60">
@@ -37839,21 +40177,21 @@
         <v>43319760</v>
       </c>
       <c r="Q53" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="R53" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B54" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>80</v>
       </c>
       <c r="C54" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>89</v>
       </c>
       <c r="D54" s="57">
@@ -37861,7 +40199,7 @@
         <v>45.22</v>
       </c>
       <c r="E54" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>1086738.432</v>
       </c>
       <c r="F54" s="57">
@@ -37873,7 +40211,7 @@
         <v>9</v>
       </c>
       <c r="H54" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>3194.88</v>
       </c>
       <c r="I54" s="105">
@@ -37887,7 +40225,7 @@
         <v>12.29029833984375</v>
       </c>
       <c r="L54" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>7987.2000000000007</v>
       </c>
       <c r="M54" s="57">
@@ -37895,7 +40233,7 @@
         <v>12000</v>
       </c>
       <c r="N54" s="98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>95846400.000000015</v>
       </c>
       <c r="O54" s="60">
@@ -37904,22 +40242,22 @@
       </c>
       <c r="P54" s="60"/>
       <c r="Q54" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="R54" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="S54" s="60"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B55" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>90</v>
       </c>
       <c r="C55" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>99</v>
       </c>
       <c r="D55" s="57">
@@ -37927,7 +40265,7 @@
         <v>66.03</v>
       </c>
       <c r="E55" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>3170758.656</v>
       </c>
       <c r="F55" s="57">
@@ -37939,7 +40277,7 @@
         <v>9</v>
       </c>
       <c r="H55" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>6389.76</v>
       </c>
       <c r="I55" s="105">
@@ -37953,7 +40291,7 @@
         <v>9.1325042724609364</v>
       </c>
       <c r="L55" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>15974.400000000001</v>
       </c>
       <c r="M55" s="57">
@@ -37961,7 +40299,7 @@
         <v>18000</v>
       </c>
       <c r="N55" s="98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>287539200</v>
       </c>
       <c r="O55" s="60">
@@ -37970,22 +40308,22 @@
       </c>
       <c r="P55" s="60"/>
       <c r="Q55" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="R55" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="S55" s="60"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B56" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="C56" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>109</v>
       </c>
       <c r="D56" s="57">
@@ -37993,7 +40331,7 @@
         <v>87.1</v>
       </c>
       <c r="E56" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>8361000.959999999</v>
       </c>
       <c r="F56" s="57">
@@ -38005,7 +40343,7 @@
         <v>9</v>
       </c>
       <c r="H56" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>12779.52</v>
       </c>
       <c r="I56" s="105">
@@ -38019,7 +40357,7 @@
         <v>12.552111511230468</v>
       </c>
       <c r="L56" s="57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>31948.800000000003</v>
       </c>
       <c r="M56" s="57">
@@ -38027,7 +40365,7 @@
         <v>25000</v>
       </c>
       <c r="N56" s="98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>798720000.00000012</v>
       </c>
       <c r="O56" s="60">
@@ -38047,11 +40385,11 @@
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B57" s="123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>110</v>
       </c>
       <c r="C57" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>119</v>
       </c>
       <c r="D57" s="123">
@@ -38059,7 +40397,7 @@
         <v>99.720000000000027</v>
       </c>
       <c r="E57" s="123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>19141165.056000005</v>
       </c>
       <c r="F57" s="123">
@@ -38071,7 +40409,7 @@
         <v>9</v>
       </c>
       <c r="H57" s="123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>25559.040000000001</v>
       </c>
       <c r="I57" s="124">
@@ -38085,7 +40423,7 @@
         <v>15.415462005615236</v>
       </c>
       <c r="L57" s="123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>63897.600000000006</v>
       </c>
       <c r="M57" s="123">
@@ -38093,7 +40431,7 @@
         <v>40000</v>
       </c>
       <c r="N57" s="125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>2555904000</v>
       </c>
       <c r="O57" s="126" t="e">
@@ -38107,11 +40445,11 @@
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B58" s="123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>120</v>
       </c>
       <c r="C58" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>129</v>
       </c>
       <c r="D58" s="123">
@@ -38119,7 +40457,7 @@
         <v>111.63</v>
       </c>
       <c r="E58" s="123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>42848452.608000003</v>
       </c>
       <c r="F58" s="123">
@@ -38131,7 +40469,7 @@
         <v>9</v>
       </c>
       <c r="H58" s="123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>51118.080000000002</v>
       </c>
       <c r="I58" s="124">
@@ -38145,7 +40483,7 @@
         <v>8.9678928451538091</v>
       </c>
       <c r="L58" s="123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>127795.20000000001</v>
       </c>
       <c r="M58" s="123">
@@ -38153,7 +40491,7 @@
         <v>60000</v>
       </c>
       <c r="N58" s="125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>7667712000.000001</v>
       </c>
       <c r="O58" s="126" t="e">
@@ -38167,11 +40505,11 @@
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B59" s="123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>130</v>
       </c>
       <c r="C59" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>139</v>
       </c>
       <c r="D59" s="123">
@@ -38179,7 +40517,7 @@
         <v>123.07</v>
       </c>
       <c r="E59" s="123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>94468767.744000003</v>
       </c>
       <c r="F59" s="123">
@@ -38191,7 +40529,7 @@
         <v>9</v>
       </c>
       <c r="H59" s="123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>102236.16</v>
       </c>
       <c r="I59" s="124">
@@ -38205,7 +40543,7 @@
         <v>10.120817516326905</v>
       </c>
       <c r="L59" s="123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>255590.40000000002</v>
       </c>
       <c r="M59" s="123">
@@ -38213,7 +40551,7 @@
         <v>90000</v>
       </c>
       <c r="N59" s="125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>23003136000.000004</v>
       </c>
       <c r="O59" s="126" t="e">
@@ -38226,11 +40564,11 @@
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B60" s="123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="44"/>
         <v>140</v>
       </c>
       <c r="C60" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="45"/>
         <v>149</v>
       </c>
       <c r="D60" s="123">
@@ -38238,7 +40576,7 @@
         <v>134.12</v>
       </c>
       <c r="E60" s="123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>205883179.00800002</v>
       </c>
       <c r="F60" s="123">
@@ -38250,7 +40588,7 @@
         <v>9</v>
       </c>
       <c r="H60" s="123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>204472.32000000001</v>
       </c>
       <c r="I60" s="124">
@@ -38264,7 +40602,7 @@
         <v>11.202299383163453</v>
       </c>
       <c r="L60" s="123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="42"/>
         <v>511180.80000000005</v>
       </c>
       <c r="M60" s="123">
@@ -38272,7 +40610,7 @@
         <v>140000</v>
       </c>
       <c r="N60" s="125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="43"/>
         <v>71565312000</v>
       </c>
       <c r="O60" s="126" t="e">
@@ -38578,7 +40916,7 @@
         <v>330480</v>
       </c>
       <c r="E74" s="114">
-        <f t="shared" ref="E74:E80" si="18">ROUND(D74/$G$7,-LEN(D74)+4)</f>
+        <f t="shared" ref="E74:E80" si="46">ROUND(D74/$G$7,-LEN(D74)+4)</f>
         <v>3400</v>
       </c>
       <c r="F74" s="120">
@@ -38597,17 +40935,17 @@
         <v>4500</v>
       </c>
       <c r="K74" s="56">
-        <f t="shared" ref="K74:K80" si="19">SUMPRODUCT($F$72:$J$72,F74:J74)</f>
+        <f t="shared" ref="K74:K80" si="47">SUMPRODUCT($F$72:$J$72,F74:J74)</f>
         <v>3500</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B75" s="58">
-        <f t="shared" ref="B75:B80" si="20">C74+1</f>
+        <f t="shared" ref="B75:B80" si="48">C74+1</f>
         <v>40</v>
       </c>
       <c r="C75" s="58">
-        <f t="shared" ref="C75:C80" si="21">C74+10</f>
+        <f t="shared" ref="C75:C80" si="49">C74+10</f>
         <v>49</v>
       </c>
       <c r="D75" s="85">
@@ -38615,7 +40953,7 @@
         <v>1202880</v>
       </c>
       <c r="E75" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>13000</v>
       </c>
       <c r="F75" s="120">
@@ -38625,7 +40963,7 @@
         <v>12000</v>
       </c>
       <c r="H75" s="113">
-        <f t="shared" ref="H75:H78" si="22">E75</f>
+        <f t="shared" ref="H75:H78" si="50">E75</f>
         <v>13000</v>
       </c>
       <c r="I75" s="113">
@@ -38635,17 +40973,17 @@
         <v>16000</v>
       </c>
       <c r="K75" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>13000</v>
       </c>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B76" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>50</v>
       </c>
       <c r="C76" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>59</v>
       </c>
       <c r="D76" s="85">
@@ -38653,7 +40991,7 @@
         <v>2475640</v>
       </c>
       <c r="E76" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>26000</v>
       </c>
       <c r="F76" s="120">
@@ -38672,17 +41010,17 @@
         <v>35000</v>
       </c>
       <c r="K76" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>25000</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B77" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>60</v>
       </c>
       <c r="C77" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>69</v>
       </c>
       <c r="D77" s="85">
@@ -38690,7 +41028,7 @@
         <v>10220080</v>
       </c>
       <c r="E77" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>110000</v>
       </c>
       <c r="F77" s="120">
@@ -38709,17 +41047,17 @@
         <v>150000</v>
       </c>
       <c r="K77" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B78" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>70</v>
       </c>
       <c r="C78" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>79</v>
       </c>
       <c r="D78" s="85">
@@ -38727,7 +41065,7 @@
         <v>43319760</v>
       </c>
       <c r="E78" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>450000</v>
       </c>
       <c r="F78" s="120">
@@ -38737,7 +41075,7 @@
         <v>300000</v>
       </c>
       <c r="H78" s="113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>450000</v>
       </c>
       <c r="I78" s="113">
@@ -38747,17 +41085,17 @@
         <v>750000</v>
       </c>
       <c r="K78" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>450000</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B79" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>80</v>
       </c>
       <c r="C79" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>89</v>
       </c>
       <c r="D79" s="85">
@@ -38765,7 +41103,7 @@
         <v>95099700</v>
       </c>
       <c r="E79" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>990000</v>
       </c>
       <c r="F79" s="120">
@@ -38784,17 +41122,17 @@
         <v>1500000</v>
       </c>
       <c r="K79" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B80" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="48"/>
         <v>90</v>
       </c>
       <c r="C80" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="49"/>
         <v>99</v>
       </c>
       <c r="D80" s="85">
@@ -38802,7 +41140,7 @@
         <v>411644580</v>
       </c>
       <c r="E80" s="114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="46"/>
         <v>4300000</v>
       </c>
       <c r="F80" s="120">
@@ -38821,7 +41159,7 @@
         <v>6000000</v>
       </c>
       <c r="K80" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="47"/>
         <v>4000000</v>
       </c>
     </row>
@@ -38972,7 +41310,7 @@
         <v>200</v>
       </c>
       <c r="K87" s="56">
-        <f t="shared" ref="K87:K93" si="23">SUMPRODUCT($F$72:$J$72,F87:J87)</f>
+        <f t="shared" ref="K87:K93" si="51">SUMPRODUCT($F$72:$J$72,F87:J87)</f>
         <v>150</v>
       </c>
       <c r="L87" s="60"/>
@@ -38986,11 +41324,11 @@
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B88" s="58">
-        <f t="shared" ref="B88:B93" si="24">C87+1</f>
+        <f t="shared" ref="B88:B93" si="52">C87+1</f>
         <v>40</v>
       </c>
       <c r="C88" s="58">
-        <f t="shared" ref="C88:C93" si="25">C87+10</f>
+        <f t="shared" ref="C88:C93" si="53">C87+10</f>
         <v>49</v>
       </c>
       <c r="D88" s="85">
@@ -38998,7 +41336,7 @@
         <v>18969</v>
       </c>
       <c r="E88" s="114">
-        <f t="shared" ref="E88:E93" si="26">ROUND(D88/$G$7,-1)</f>
+        <f t="shared" ref="E88:E93" si="54">ROUND(D88/$G$7,-1)</f>
         <v>200</v>
       </c>
       <c r="F88" s="120">
@@ -39017,7 +41355,7 @@
         <v>300</v>
       </c>
       <c r="K88" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>200</v>
       </c>
       <c r="L88" s="60"/>
@@ -39031,11 +41369,11 @@
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B89" s="58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>50</v>
       </c>
       <c r="C89" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>59</v>
       </c>
       <c r="D89" s="85">
@@ -39043,7 +41381,7 @@
         <v>23940</v>
       </c>
       <c r="E89" s="114">
-        <f t="shared" si="26"/>
+        <f t="shared" si="54"/>
         <v>250</v>
       </c>
       <c r="F89" s="120">
@@ -39062,7 +41400,7 @@
         <v>350</v>
       </c>
       <c r="K89" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>250</v>
       </c>
       <c r="L89" s="60"/>
@@ -39076,11 +41414,11 @@
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B90" s="58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>60</v>
       </c>
       <c r="C90" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>69</v>
       </c>
       <c r="D90" s="85">
@@ -39088,7 +41426,7 @@
         <v>28728</v>
       </c>
       <c r="E90" s="114">
-        <f t="shared" si="26"/>
+        <f t="shared" si="54"/>
         <v>300</v>
       </c>
       <c r="F90" s="120">
@@ -39107,7 +41445,7 @@
         <v>400</v>
       </c>
       <c r="K90" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>300</v>
       </c>
       <c r="L90" s="60"/>
@@ -39121,11 +41459,11 @@
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B91" s="58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>70</v>
       </c>
       <c r="C91" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>79</v>
       </c>
       <c r="D91" s="85">
@@ -39133,7 +41471,7 @@
         <v>94860</v>
       </c>
       <c r="E91" s="114">
-        <f t="shared" si="26"/>
+        <f t="shared" si="54"/>
         <v>990</v>
       </c>
       <c r="F91" s="120">
@@ -39152,7 +41490,7 @@
         <v>1500</v>
       </c>
       <c r="K91" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="L91" s="60"/>
@@ -39166,11 +41504,11 @@
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B92" s="58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>80</v>
       </c>
       <c r="C92" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>89</v>
       </c>
       <c r="D92" s="85">
@@ -39178,7 +41516,7 @@
         <v>433896</v>
       </c>
       <c r="E92" s="114">
-        <f t="shared" si="26"/>
+        <f t="shared" si="54"/>
         <v>4520</v>
       </c>
       <c r="F92" s="120">
@@ -39197,7 +41535,7 @@
         <v>7000</v>
       </c>
       <c r="K92" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>5000</v>
       </c>
       <c r="L92" s="60"/>
@@ -39205,11 +41543,11 @@
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B93" s="58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="52"/>
         <v>90</v>
       </c>
       <c r="C93" s="58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="53"/>
         <v>99</v>
       </c>
       <c r="D93" s="85">
@@ -39217,7 +41555,7 @@
         <v>1028020</v>
       </c>
       <c r="E93" s="114">
-        <f t="shared" si="26"/>
+        <f t="shared" si="54"/>
         <v>10710</v>
       </c>
       <c r="F93" s="120">
@@ -39236,7 +41574,7 @@
         <v>15000</v>
       </c>
       <c r="K93" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="51"/>
         <v>10000</v>
       </c>
       <c r="L93" s="60"/>
@@ -39407,7 +41745,7 @@
         <v>200</v>
       </c>
       <c r="K99" s="56">
-        <f t="shared" ref="K99:K105" si="27">SUMPRODUCT($F$72:$J$72,F99:J99)</f>
+        <f t="shared" ref="K99:K105" si="55">SUMPRODUCT($F$72:$J$72,F99:J99)</f>
         <v>150</v>
       </c>
       <c r="L99" s="60"/>
@@ -39421,11 +41759,11 @@
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B100" s="58">
-        <f t="shared" ref="B100:B105" si="28">C99+1</f>
+        <f t="shared" ref="B100:B105" si="56">C99+1</f>
         <v>40</v>
       </c>
       <c r="C100" s="58">
-        <f t="shared" ref="C100:C105" si="29">C99+10</f>
+        <f t="shared" ref="C100:C105" si="57">C99+10</f>
         <v>49</v>
       </c>
       <c r="D100" s="85">
@@ -39433,7 +41771,7 @@
         <v>18969</v>
       </c>
       <c r="E100" s="114">
-        <f t="shared" ref="E100:E105" si="30">ROUND(D100/$G$7,-1)</f>
+        <f t="shared" ref="E100:E105" si="58">ROUND(D100/$G$7,-1)</f>
         <v>200</v>
       </c>
       <c r="F100" s="120">
@@ -39452,7 +41790,7 @@
         <v>300</v>
       </c>
       <c r="K100" s="56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>200</v>
       </c>
       <c r="L100" s="60"/>
@@ -39466,11 +41804,11 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B101" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>50</v>
       </c>
       <c r="C101" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="57"/>
         <v>59</v>
       </c>
       <c r="D101" s="85">
@@ -39478,7 +41816,7 @@
         <v>23940</v>
       </c>
       <c r="E101" s="114">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>250</v>
       </c>
       <c r="F101" s="120">
@@ -39497,7 +41835,7 @@
         <v>350</v>
       </c>
       <c r="K101" s="56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>250</v>
       </c>
       <c r="L101" s="60"/>
@@ -39511,11 +41849,11 @@
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B102" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>60</v>
       </c>
       <c r="C102" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="57"/>
         <v>69</v>
       </c>
       <c r="D102" s="85">
@@ -39523,7 +41861,7 @@
         <v>28728</v>
       </c>
       <c r="E102" s="114">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>300</v>
       </c>
       <c r="F102" s="120">
@@ -39542,7 +41880,7 @@
         <v>400</v>
       </c>
       <c r="K102" s="56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>300</v>
       </c>
       <c r="L102" s="60"/>
@@ -39556,11 +41894,11 @@
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B103" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>70</v>
       </c>
       <c r="C103" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="57"/>
         <v>79</v>
       </c>
       <c r="D103" s="85">
@@ -39568,7 +41906,7 @@
         <v>94860</v>
       </c>
       <c r="E103" s="114">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>990</v>
       </c>
       <c r="F103" s="120">
@@ -39587,7 +41925,7 @@
         <v>1500</v>
       </c>
       <c r="K103" s="56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="L103" s="60"/>
@@ -39595,11 +41933,11 @@
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B104" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>80</v>
       </c>
       <c r="C104" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="57"/>
         <v>89</v>
       </c>
       <c r="D104" s="85">
@@ -39607,7 +41945,7 @@
         <v>433896</v>
       </c>
       <c r="E104" s="114">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>4520</v>
       </c>
       <c r="F104" s="120">
@@ -39626,7 +41964,7 @@
         <v>7000</v>
       </c>
       <c r="K104" s="56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>5000</v>
       </c>
       <c r="L104" s="60"/>
@@ -39634,11 +41972,11 @@
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B105" s="58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>90</v>
       </c>
       <c r="C105" s="58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="57"/>
         <v>99</v>
       </c>
       <c r="D105" s="85">
@@ -39646,7 +41984,7 @@
         <v>1028020</v>
       </c>
       <c r="E105" s="114">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>10710</v>
       </c>
       <c r="F105" s="120">
@@ -39665,7 +42003,7 @@
         <v>15000</v>
       </c>
       <c r="K105" s="56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>10000</v>
       </c>
       <c r="L105" s="60"/>
@@ -39767,7 +42105,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4:X17"/>
+      <selection activeCell="H4" sqref="H4:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -39828,22 +42166,22 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H2" s="153" t="s">
+      <c r="H2" s="154" t="s">
         <v>304</v>
       </c>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="156"/>
     </row>
     <row r="3" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="57" t="s">
@@ -49253,7 +51591,7 @@
         <v>4.4099999999999966</v>
       </c>
       <c r="R69" s="77">
-        <f t="shared" ref="R69:R100" si="11">INDEX($B$4:$H$104,MATCH($O69,$B$4:$B$104,0),MATCH("每日产出木材",$B$4:$H$4,0))*Q69*IF($O69&gt;=$M$6,2,1)</f>
+        <f t="shared" ref="R69:R85" si="11">INDEX($B$4:$H$104,MATCH($O69,$B$4:$B$104,0),MATCH("每日产出木材",$B$4:$H$4,0))*Q69*IF($O69&gt;=$M$6,2,1)</f>
         <v>395672467.67999971</v>
       </c>
       <c r="S69" s="77">
@@ -49269,7 +51607,7 @@
         <v>1.8599999999999994</v>
       </c>
       <c r="W69" s="77">
-        <f t="shared" ref="W69:W100" si="12">INDEX($B$4:$H$104,MATCH($O69,$B$4:$B$104,0),MATCH("每日产出木材",$B$4:$H$4,0))*V69*IF($O69&gt;=$M$6,2,1)</f>
+        <f t="shared" ref="W69:W85" si="12">INDEX($B$4:$H$104,MATCH($O69,$B$4:$B$104,0),MATCH("每日产出木材",$B$4:$H$4,0))*V69*IF($O69&gt;=$M$6,2,1)</f>
         <v>166882265.27999994</v>
       </c>
       <c r="X69" s="77">
@@ -51283,9 +53621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB104"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="24" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4:AB18"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -56465,7 +58803,7 @@
         <v>4.4099999999999966</v>
       </c>
       <c r="R69" s="77">
-        <f t="shared" ref="R69:R100" si="11">INDEX($B$4:$H$104,MATCH($O69,$B$4:$B$104,0),MATCH("每日产出矿石",$B$4:$H$4,0))*Q69*IF($O69&gt;=$M$6,2,1)</f>
+        <f t="shared" ref="R69:R85" si="11">INDEX($B$4:$H$104,MATCH($O69,$B$4:$B$104,0),MATCH("每日产出矿石",$B$4:$H$4,0))*Q69*IF($O69&gt;=$M$6,2,1)</f>
         <v>395672467.67999971</v>
       </c>
       <c r="S69" s="77">
@@ -56481,7 +58819,7 @@
         <v>1.8599999999999994</v>
       </c>
       <c r="W69" s="77">
-        <f t="shared" ref="W69:W100" si="12">INDEX($B$4:$H$104,MATCH($O69,$B$4:$B$104,0),MATCH("每日产出矿石",$B$4:$H$4,0))*V69*IF($O69&gt;=$M$6,2,1)</f>
+        <f t="shared" ref="W69:W85" si="12">INDEX($B$4:$H$104,MATCH($O69,$B$4:$B$104,0),MATCH("每日产出矿石",$B$4:$H$4,0))*V69*IF($O69&gt;=$M$6,2,1)</f>
         <v>166882265.27999994</v>
       </c>
       <c r="X69" s="77">
@@ -66611,9 +68949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="24" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M104" sqref="M5:M104"/>
+      <selection pane="bottomLeft" activeCell="R96" sqref="R96:Z96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
